--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -1530,36 +1530,129 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,103 +1686,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2012,8 +2012,8 @@
   </sheetPr>
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2048,13 +2048,13 @@
       <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="57.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -2075,13 +2075,13 @@
       <c r="F2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -2092,133 +2092,133 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="23" t="s">
         <v>294</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="23" t="s">
         <v>297</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="23" t="s">
         <v>299</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="23" t="s">
         <v>302</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="77"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="23" t="s">
         <v>303</v>
       </c>
@@ -2226,3128 +2226,3128 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="48" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="31"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="77"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="31"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="77"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="31"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="77"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="31"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="31"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="31"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="36"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="51" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="49"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="77"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="77"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="77"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="77"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="77"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="49"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="48" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="K33" s="49"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="77"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="77"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="77"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="31"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="77"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="31"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="77"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="31"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="31"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="77"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="31"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="77"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="31"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="77"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="31"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="77"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="36"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="58" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="30" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="31"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="77"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="31"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="77"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="31"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="77"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
+        <v>107</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="77"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="31"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="77"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="77"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="77"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="31"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A54" s="77"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="36"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="49"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="77"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="30" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="K55" s="31"/>
+      <c r="K55" s="28"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="77"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="31"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="77"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="31"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="77"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="31"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="77"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="31"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="77"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="31"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="29" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="31"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="77"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="23" t="s">
         <v>267</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="31"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="77"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="31"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="77"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="31"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A65" s="77"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="31"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="78"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="36"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="48" t="s">
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="K67" s="49"/>
+      <c r="K67" s="66"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="77"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="31"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="77"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="31"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="28"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="77"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="31"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="77"/>
-      <c r="B71" s="29" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="31"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="77"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="31"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="28"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="77"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="31"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="77"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="31"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="77"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="31"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A76" s="77"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="36"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="63" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="48" t="s">
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="K77" s="49"/>
+      <c r="K77" s="66"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="77"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="31"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="77"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="31"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="77"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="31"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="77"/>
-      <c r="B81" s="29" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="31"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="28"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="77"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="31"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="77"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="31"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="77"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="31"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="77"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="31"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="28"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A86" s="77"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="20"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="36"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="49"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="77"/>
-      <c r="B87" s="55" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="48" t="s">
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="K87" s="49"/>
+      <c r="K87" s="66"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="77"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="31"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="28"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="77"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="31"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="28"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="77"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="31"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="28"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="77"/>
-      <c r="B91" s="29" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="31"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="77"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="31"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="77"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="31"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="28"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="77"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="31"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="77"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="31"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="28"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A96" s="77"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="36"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="49"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="77"/>
-      <c r="B97" s="58" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="48" t="s">
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="K97" s="49"/>
+      <c r="K97" s="66"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="77"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="31"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="28"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="77"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="31"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="28"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="77"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="31"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="28"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="77"/>
-      <c r="B101" s="29" t="s">
+      <c r="A101" s="43"/>
+      <c r="B101" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="31"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="28"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="77"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="31"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="28"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="77"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="31"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="28"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="77"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="31"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="28"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="77"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="31"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="28"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A106" s="77"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="36"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="49"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="77"/>
-      <c r="B107" s="66" t="s">
+      <c r="A107" s="43"/>
+      <c r="B107" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="48" t="s">
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="K107" s="49"/>
+      <c r="K107" s="66"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="77"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="31"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="28"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="77"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="31"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="28"/>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="77"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="31"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="28"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="77"/>
+      <c r="A111" s="43"/>
       <c r="B111" s="23" t="s">
         <v>270</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="31"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="28"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="77"/>
-      <c r="B112" s="29" t="s">
+      <c r="A112" s="43"/>
+      <c r="B112" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="31"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="28"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="77"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="31"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="28"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="77"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="31"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="28"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="77"/>
+      <c r="A115" s="43"/>
       <c r="B115" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="31"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="28"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="77"/>
+      <c r="A116" s="43"/>
       <c r="B116" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="31"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="28"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A117" s="77"/>
+      <c r="A117" s="43"/>
       <c r="B117" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="36"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="77"/>
-      <c r="B118" s="45" t="s">
+      <c r="A118" s="43"/>
+      <c r="B118" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="47"/>
-      <c r="J118" s="48" t="s">
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="K118" s="49"/>
+      <c r="K118" s="66"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="77"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="31"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="28"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="77"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="31"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="28"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="77"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="31"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="28"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="77"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="31"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="28"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="77"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="31"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="28"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="77"/>
-      <c r="B124" s="29" t="s">
+      <c r="A124" s="43"/>
+      <c r="B124" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="31"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="28"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="77"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D125" s="30" t="s">
+      <c r="D125" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="31"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="28"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="77"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="31"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="28"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="77"/>
+      <c r="A127" s="43"/>
       <c r="B127" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="31"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="28"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A128" s="77"/>
+      <c r="A128" s="43"/>
       <c r="B128" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="50"/>
-      <c r="K128" s="36"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="49"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="77"/>
-      <c r="B129" s="52" t="s">
+      <c r="A129" s="43"/>
+      <c r="B129" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="48" t="s">
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="63"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="K129" s="49"/>
+      <c r="K129" s="66"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="77"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D130" s="30" t="s">
+      <c r="D130" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="29"/>
-      <c r="K130" s="31"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="28"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="77"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="29"/>
-      <c r="K131" s="31"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="28"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="77"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="30" t="s">
+      <c r="D132" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E132" s="30"/>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="31"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="31"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="28"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="77"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D133" s="30" t="s">
+      <c r="D133" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="31"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="28"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="77"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D134" s="30" t="s">
+      <c r="D134" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="31"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="28"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="77"/>
-      <c r="B135" s="29" t="s">
+      <c r="A135" s="43"/>
+      <c r="B135" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="31"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="28"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="77"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D136" s="30" t="s">
+      <c r="D136" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="31"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="28"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="77"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D137" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="31"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="28"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="77"/>
+      <c r="A138" s="43"/>
       <c r="B138" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="30" t="s">
+      <c r="D138" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="31"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="28"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A139" s="77"/>
+      <c r="A139" s="43"/>
       <c r="B139" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D139" s="35" t="s">
+      <c r="D139" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E139" s="35"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="50"/>
-      <c r="K139" s="36"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="49"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="77"/>
-      <c r="B140" s="55" t="s">
+      <c r="A140" s="43"/>
+      <c r="B140" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C140" s="56"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="48" t="s">
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="K140" s="49"/>
+      <c r="K140" s="66"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="77"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D141" s="30" t="s">
+      <c r="D141" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="31"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="28"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="77"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D142" s="30" t="s">
+      <c r="D142" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="31"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="28"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="77"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D143" s="30" t="s">
+      <c r="D143" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="31"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="28"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="77"/>
+      <c r="A144" s="43"/>
       <c r="B144" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="31"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="31"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="28"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="77"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D145" s="30" t="s">
+      <c r="D145" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="31"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="28"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="77"/>
-      <c r="B146" s="29" t="s">
+      <c r="A146" s="43"/>
+      <c r="B146" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="31"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="28"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="77"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D147" s="30" t="s">
+      <c r="D147" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="31"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="28"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="77"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D148" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="31"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="28"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="77"/>
+      <c r="A149" s="43"/>
       <c r="B149" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D149" s="30" t="s">
+      <c r="D149" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="31"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="28"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A150" s="77"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="26"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="50"/>
-      <c r="K150" s="36"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="48"/>
+      <c r="J150" s="67"/>
+      <c r="K150" s="49"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="77"/>
-      <c r="B151" s="58" t="s">
+      <c r="A151" s="43"/>
+      <c r="B151" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="48" t="s">
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="55"/>
+      <c r="J151" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="K151" s="49"/>
+      <c r="K151" s="66"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="77"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="31"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="28"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="77"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="31"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="28"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="77"/>
+      <c r="A154" s="43"/>
       <c r="B154" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="31"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="31"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="28"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="77"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="D155" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="31"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="28"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="77"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="31"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="28"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="77"/>
-      <c r="B157" s="29" t="s">
+      <c r="A157" s="43"/>
+      <c r="B157" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="31"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="28"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="77"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="31"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="31"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="28"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="77"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D159" s="30" t="s">
+      <c r="D159" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="31"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="28"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="77"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D160" s="30" t="s">
+      <c r="D160" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="31"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="31"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="28"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A161" s="77"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D161" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="36"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="67"/>
+      <c r="K161" s="49"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="77"/>
-      <c r="B162" s="63" t="s">
+      <c r="A162" s="43"/>
+      <c r="B162" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C162" s="64"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="64"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="64"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="48" t="s">
+      <c r="C162" s="51"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="51"/>
+      <c r="I162" s="52"/>
+      <c r="J162" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="K162" s="49"/>
+      <c r="K162" s="66"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="77"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D163" s="30" t="s">
+      <c r="D163" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="31"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="31"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="28"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="77"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="D164" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
-      <c r="I164" s="31"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="31"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="28"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="77"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D165" s="30" t="s">
+      <c r="D165" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
-      <c r="I165" s="31"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="31"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="28"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="77"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="D166" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
-      <c r="I166" s="31"/>
-      <c r="J166" s="29"/>
-      <c r="K166" s="31"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="28"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="77"/>
+      <c r="A167" s="43"/>
       <c r="B167" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D167" s="30" t="s">
+      <c r="D167" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="31"/>
-      <c r="J167" s="29"/>
-      <c r="K167" s="31"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="28"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="77"/>
-      <c r="B168" s="29" t="s">
+      <c r="A168" s="43"/>
+      <c r="B168" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="30"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="31"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="28"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="77"/>
+      <c r="A169" s="43"/>
       <c r="B169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D169" s="30" t="s">
+      <c r="D169" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="29"/>
-      <c r="K169" s="31"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="28"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="77"/>
+      <c r="A170" s="43"/>
       <c r="B170" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D170" s="30" t="s">
+      <c r="D170" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
-      <c r="I170" s="31"/>
-      <c r="J170" s="29"/>
-      <c r="K170" s="31"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="28"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="77"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D171" s="30" t="s">
+      <c r="D171" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-      <c r="I171" s="31"/>
-      <c r="J171" s="29"/>
-      <c r="K171" s="31"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="28"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A172" s="78"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C172" s="20"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="61"/>
-      <c r="F172" s="61"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="61"/>
-      <c r="I172" s="62"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="36"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47"/>
+      <c r="I172" s="48"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="49"/>
     </row>
     <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="B173" s="70" t="s">
+      <c r="B173" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
-      <c r="J173" s="72" t="s">
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="K173" s="73"/>
+      <c r="K173" s="39"/>
     </row>
     <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="77"/>
+      <c r="A174" s="43"/>
       <c r="B174" s="23" t="s">
         <v>294</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="E174" s="30"/>
+      <c r="E174" s="27"/>
       <c r="F174" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="G174" s="27" t="s">
+      <c r="G174" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H174" s="27"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="74"/>
-      <c r="K174" s="75"/>
+      <c r="H174" s="29"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="41"/>
     </row>
     <row r="175" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="77"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="23" t="s">
         <v>297</v>
       </c>
       <c r="C175" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D175" s="30" t="s">
+      <c r="D175" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="E175" s="30"/>
+      <c r="E175" s="27"/>
       <c r="F175" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="G175" s="27" t="s">
+      <c r="G175" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H175" s="27"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="75"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="41"/>
     </row>
     <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="77"/>
-      <c r="B176" s="29" t="s">
+      <c r="A176" s="43"/>
+      <c r="B176" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="31"/>
-      <c r="J176" s="74"/>
-      <c r="K176" s="75"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="41"/>
     </row>
     <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="77"/>
+      <c r="A177" s="43"/>
       <c r="B177" s="23" t="s">
         <v>299</v>
       </c>
       <c r="C177" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="E177" s="30"/>
+      <c r="E177" s="27"/>
       <c r="F177" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G177" s="27" t="s">
+      <c r="G177" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H177" s="27"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="74"/>
-      <c r="K177" s="75"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="41"/>
     </row>
     <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="77"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="23" t="s">
         <v>302</v>
       </c>
       <c r="C178" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="D178" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="E178" s="30"/>
+      <c r="E178" s="27"/>
       <c r="F178" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="G178" s="27" t="s">
+      <c r="G178" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H178" s="27"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="74"/>
-      <c r="K178" s="75"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="41"/>
     </row>
     <row r="179" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A179" s="78"/>
+      <c r="A179" s="44"/>
       <c r="B179" s="6" t="s">
         <v>303</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="D179" s="35"/>
-      <c r="E179" s="35"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
       <c r="F179" s="24"/>
-      <c r="G179" s="32" t="s">
+      <c r="G179" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="H179" s="32"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="79"/>
-      <c r="K179" s="80"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="46"/>
     </row>
     <row r="180" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="181" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5358,17 +5358,165 @@
     <row r="186" spans="1:11" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B118:I118"/>
+    <mergeCell ref="J11:K21"/>
+    <mergeCell ref="J22:K32"/>
+    <mergeCell ref="J33:K43"/>
+    <mergeCell ref="J44:K54"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D171:I171"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D144:I144"/>
+    <mergeCell ref="B146:I146"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D148:I148"/>
+    <mergeCell ref="D149:I149"/>
+    <mergeCell ref="D145:I145"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="D153:I153"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="D131:I131"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="J162:K172"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="D164:I164"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D166:I166"/>
+    <mergeCell ref="D156:I156"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D155:I155"/>
+    <mergeCell ref="D134:I134"/>
+    <mergeCell ref="B135:I135"/>
+    <mergeCell ref="D136:I136"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="D138:I138"/>
+    <mergeCell ref="D139:I139"/>
+    <mergeCell ref="J55:K66"/>
+    <mergeCell ref="J118:K128"/>
+    <mergeCell ref="J129:K139"/>
+    <mergeCell ref="J140:K150"/>
+    <mergeCell ref="J151:K161"/>
+    <mergeCell ref="J97:K106"/>
+    <mergeCell ref="J87:K96"/>
+    <mergeCell ref="J77:K86"/>
+    <mergeCell ref="J67:K76"/>
+    <mergeCell ref="J107:K117"/>
+    <mergeCell ref="D161:I161"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="B140:I140"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D170:I170"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B129:I129"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="B124:I124"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D128:I128"/>
+    <mergeCell ref="D163:I163"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="B162:I162"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="B107:I107"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:K10"/>
     <mergeCell ref="A4:A66"/>
@@ -5393,36 +5541,23 @@
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="G174:I174"/>
     <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
     <mergeCell ref="D65:I65"/>
     <mergeCell ref="D120:I120"/>
     <mergeCell ref="D121:I121"/>
     <mergeCell ref="D122:I122"/>
     <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D170:I170"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B129:I129"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="D163:I163"/>
-    <mergeCell ref="D92:I92"/>
     <mergeCell ref="D172:I172"/>
-    <mergeCell ref="B162:I162"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="B107:I107"/>
     <mergeCell ref="D108:I108"/>
     <mergeCell ref="D109:I109"/>
     <mergeCell ref="D110:I110"/>
@@ -5430,141 +5565,6 @@
     <mergeCell ref="D113:I113"/>
     <mergeCell ref="D114:I114"/>
     <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="B157:I157"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="B140:I140"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D155:I155"/>
-    <mergeCell ref="D134:I134"/>
-    <mergeCell ref="B135:I135"/>
-    <mergeCell ref="D136:I136"/>
-    <mergeCell ref="D137:I137"/>
-    <mergeCell ref="D138:I138"/>
-    <mergeCell ref="D139:I139"/>
-    <mergeCell ref="J55:K66"/>
-    <mergeCell ref="J118:K128"/>
-    <mergeCell ref="J129:K139"/>
-    <mergeCell ref="J140:K150"/>
-    <mergeCell ref="J151:K161"/>
-    <mergeCell ref="J97:K106"/>
-    <mergeCell ref="J87:K96"/>
-    <mergeCell ref="J77:K86"/>
-    <mergeCell ref="J67:K76"/>
-    <mergeCell ref="J107:K117"/>
-    <mergeCell ref="J162:K172"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D130:I130"/>
-    <mergeCell ref="D164:I164"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D166:I166"/>
-    <mergeCell ref="D156:I156"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="D171:I171"/>
-    <mergeCell ref="D141:I141"/>
-    <mergeCell ref="D142:I142"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D144:I144"/>
-    <mergeCell ref="B146:I146"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D148:I148"/>
-    <mergeCell ref="D149:I149"/>
-    <mergeCell ref="D145:I145"/>
-    <mergeCell ref="D152:I152"/>
-    <mergeCell ref="D153:I153"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D131:I131"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D161:I161"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B118:I118"/>
-    <mergeCell ref="J11:K21"/>
-    <mergeCell ref="J22:K32"/>
-    <mergeCell ref="J33:K43"/>
-    <mergeCell ref="J44:K54"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="351">
   <si>
     <t>22 June (Friday)</t>
   </si>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>11:50-12:05</t>
-  </si>
-  <si>
-    <t>Session 1 Novel Properties of Nanomaterials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Application of Nanomaterials: Construction Engineering</t>
@@ -131,13 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Session 5 Application of Nanomaterials: Energy, Environment &amp; Catalyst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Session 3 Characterization of Nanomaterials</t>
-  </si>
-  <si>
     <t>3D Covalent Organic Frameworks (COFs): From Design to Applications</t>
   </si>
   <si>
@@ -234,9 +223,6 @@
     <t>Huaping Liu</t>
   </si>
   <si>
-    <t>栅长5纳米的互补性碳纳米管CMOS晶体管</t>
-  </si>
-  <si>
     <t>Lianmao Peng</t>
   </si>
   <si>
@@ -343,9 +329,6 @@
   </si>
   <si>
     <t>Interlayer engineering of MoS2xSe2(1-x) nanosheets and their energy applications</t>
-  </si>
-  <si>
-    <t>C.S. Lee</t>
   </si>
   <si>
     <t>New Non-Fullerene Acceptors for High Performance OPV Applications</t>
@@ -635,9 +618,6 @@
   </si>
   <si>
     <t>Study of the viscosity of magnetic nanofluids</t>
-  </si>
-  <si>
-    <t>Thuc Hue LY</t>
   </si>
   <si>
     <t>Defects in 2D Materials and Functionalization</t>
@@ -1059,9 +1039,6 @@
     <t>To be advised</t>
   </si>
   <si>
-    <t>Photo taking</t>
-  </si>
-  <si>
     <t>Coffee break</t>
   </si>
   <si>
@@ -1098,33 +1075,12 @@
     <t xml:space="preserve">Yangyang Li </t>
   </si>
   <si>
-    <t>Session 6 Application of Nanomaterials: Optoelectronics and Electronics (MC: , Zhiyong Fan)</t>
-  </si>
-  <si>
-    <t>Session 2 Preparation and Manipulation of Nanomaterials (MC: Yangyang Li)</t>
-  </si>
-  <si>
     <t>Session 7 Application of Nanomaterials: Construction Engineering (MC: Zongjin Li)</t>
   </si>
   <si>
     <t>Session 7 Application of Nanomaterials: Construction Engineering (MC: Guoxing Sun)</t>
   </si>
   <si>
-    <t>09:00-09:20</t>
-  </si>
-  <si>
-    <t>09:25-09:55</t>
-  </si>
-  <si>
-    <t>10:00-10:20</t>
-  </si>
-  <si>
-    <t>10:50-11:20</t>
-  </si>
-  <si>
-    <t>11:25-12:55</t>
-  </si>
-  <si>
     <t>09:35-10:05</t>
   </si>
   <si>
@@ -1138,6 +1094,60 @@
   </si>
   <si>
     <t>11:50-12:00</t>
+  </si>
+  <si>
+    <t>Thuc Hue Ly</t>
+  </si>
+  <si>
+    <t>Scaling carbon nanotube complementary transistors to 5-nm gate length</t>
+  </si>
+  <si>
+    <t>Session 3 Characterization of Nanomaterials (MC: Zhiyong Tang)</t>
+  </si>
+  <si>
+    <t>Session 6 Application of Nanomaterials: Optoelectronics and Electronics (MC: Zhiyong Fan)</t>
+  </si>
+  <si>
+    <t>Session 1 Novel Properties of Nanomaterials (MC: Minghua Liu)</t>
+  </si>
+  <si>
+    <t>Session 2 Preparation and Manipulation of Nanomaterials (MC: Shilun Qiu)</t>
+  </si>
+  <si>
+    <t>Session 5 Application of Nanomaterials: Energy, Environment &amp; Catalyst (MC: Yangyang Li)</t>
+  </si>
+  <si>
+    <t>Session 5 Application of Nanomaterials: Energy, Environment &amp; Catalyst (MC: Huaiyu Shao)</t>
+  </si>
+  <si>
+    <t>Session 5 Application of Nanomaterials: Energy, Environment &amp; Catalyst (MC: Kwun Nam Hui)</t>
+  </si>
+  <si>
+    <t>Chun-Sing Lee</t>
+  </si>
+  <si>
+    <t>09:00-09:10</t>
+  </si>
+  <si>
+    <t>09:15-09:45</t>
+  </si>
+  <si>
+    <t>09:50-10:20</t>
+  </si>
+  <si>
+    <t>Photo taking and Coffee break</t>
+  </si>
+  <si>
+    <t>10:25-10:55</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>10:55-11:25</t>
+  </si>
+  <si>
+    <t>Shuit-Tong Lee</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,111 +1575,138 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,6 +1719,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1691,20 +1734,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2047,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2083,13 +2114,13 @@
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="G1" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="57.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -2105,18 +2136,18 @@
         <v>11</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="G2" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -2127,3296 +2158,3302 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="42" t="s">
+      <c r="D7" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="D9" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="23" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
+        <v>350</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="K11" s="64"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="29"/>
+        <v>223</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="29"/>
+        <v>199</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="29"/>
+        <v>201</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="39"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="31"/>
+      <c r="C21" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="64"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="39"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
+        <v>276</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
+      <c r="D24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="39"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
+        <v>42</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="39"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="39"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+        <v>46</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="K33" s="64"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="39"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="39"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="29"/>
+        <v>137</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="39"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="39"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="39"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="29"/>
+        <v>172</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="39"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="39"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="29"/>
+        <v>174</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="39"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="25"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="31"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="71"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="K44" s="29"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="39"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
+        <v>312</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="39"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="39"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="39"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="39"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
+      <c r="C49" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="39"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="39"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
+        <v>91</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="39"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="39"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
+        <v>98</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A54" s="39"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="71"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="K55" s="29"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="39"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="29"/>
+        <v>236</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="39"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
+        <v>238</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="39"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="29"/>
+        <v>240</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="39"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="29"/>
+        <v>242</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="39"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D60" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="47"/>
+      <c r="B61" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="37"/>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A62" s="47"/>
+      <c r="B62" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="29"/>
-    </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="29"/>
+      <c r="D62" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="39"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
+        <v>252</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="39"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-    </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A65" s="39"/>
+        <v>246</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="37"/>
+    </row>
+    <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A65" s="47"/>
       <c r="B65" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="29"/>
+      <c r="C65" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A66" s="40"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="31"/>
+        <v>255</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="K67" s="64"/>
+      <c r="B67" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="K67" s="73"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="39"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="29"/>
+        <v>207</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="39"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="29"/>
+        <v>209</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="39"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="29"/>
+      <c r="C70" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="39"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="27" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="29"/>
+        <v>221</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="39"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="39"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="29"/>
+        <v>213</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="39"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="29"/>
+        <v>211</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="37"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="39"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="29"/>
+        <v>217</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="37"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A76" s="39"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="31"/>
+        <v>215</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="K77" s="64"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K77" s="73"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="39"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="37"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="39"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="29"/>
+        <v>277</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="37"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="39"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="39"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="23" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="29"/>
+        <v>86</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="39"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="37"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="39"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="29"/>
+        <v>102</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="37"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="39"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="29"/>
+      <c r="C84" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="39"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="29"/>
+        <v>88</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="37"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A86" s="39"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="31"/>
+      <c r="C86" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="71"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="39"/>
-      <c r="B87" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="K87" s="64"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K87" s="73"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="39"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="29"/>
+      <c r="C88" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="37"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="39"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="29"/>
+        <v>150</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="37"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="39"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="37"/>
+    </row>
+    <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A91" s="47"/>
+      <c r="B91" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="29"/>
-    </row>
-    <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="29"/>
+      <c r="D91" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="37"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="39"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="37"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="39"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="37"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="39"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="29"/>
+        <v>279</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="37"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="39"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="29"/>
+        <v>148</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="74"/>
+      <c r="K95" s="37"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A96" s="39"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="71"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="39"/>
-      <c r="B97" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="K97" s="64"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="K97" s="73"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="39"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="29"/>
+        <v>342</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="37"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="39"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="37"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="39"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A101" s="47"/>
+      <c r="B101" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="29"/>
-    </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="29"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="37"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="39"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="39"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="37"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="39"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="37"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="39"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="29"/>
+        <v>112</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A106" s="39"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="71"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="39"/>
-      <c r="B107" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="K107" s="64"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="K107" s="73"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="39"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="29"/>
+        <v>258</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="37"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="39"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="29"/>
+        <v>259</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="37"/>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="39"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="29"/>
+        <v>260</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="74"/>
+      <c r="K110" s="37"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="39"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="29"/>
+        <v>261</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="37"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="39"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="39"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D113" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="29"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="37"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="39"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="65"/>
-      <c r="K114" s="29"/>
+        <v>262</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="37"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="39"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="29"/>
+        <v>263</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="37"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="39"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="29"/>
+        <v>266</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="37"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A117" s="39"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="31"/>
+      <c r="C117" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="39"/>
-      <c r="B118" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="K118" s="64"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="K118" s="73"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="39"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="37"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="39"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="65"/>
-      <c r="K120" s="29"/>
+        <v>178</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="37"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="39"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="29"/>
+        <v>180</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="37"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="39"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="29"/>
+        <v>182</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="37"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="39"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="37"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="39"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="37"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="39"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="29"/>
+        <v>186</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="37"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="39"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="D126" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="37"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="39"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="29"/>
+        <v>190</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="37"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A128" s="39"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="31"/>
+        <v>333</v>
+      </c>
+      <c r="D128" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="75"/>
+      <c r="K128" s="71"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="39"/>
-      <c r="B129" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="C129" s="61"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="61"/>
-      <c r="F129" s="61"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="61"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="K129" s="64"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="58"/>
+      <c r="J129" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K129" s="73"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="39"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="29"/>
+      <c r="C130" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="74"/>
+      <c r="K130" s="37"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="39"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="D131" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="37"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="39"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D132" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="65"/>
-      <c r="K132" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="D132" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="74"/>
+      <c r="K132" s="37"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="39"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="65"/>
-      <c r="K133" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="D133" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="74"/>
+      <c r="K133" s="37"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="39"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D134" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="65"/>
-      <c r="K134" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="D134" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="37"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="39"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="65"/>
-      <c r="K135" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="37"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="39"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D136" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="65"/>
-      <c r="K136" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="D136" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="37"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="39"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="65"/>
-      <c r="K137" s="29"/>
+        <v>280</v>
+      </c>
+      <c r="D137" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="37"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="39"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="65"/>
-      <c r="K138" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="37"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A139" s="39"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="31"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="71"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="39"/>
-      <c r="B140" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="58"/>
-      <c r="I140" s="59"/>
-      <c r="J140" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="K140" s="64"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="K140" s="73"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="39"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="29"/>
+        <v>154</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="74"/>
+      <c r="K141" s="37"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="39"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="74"/>
+      <c r="K142" s="37"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="39"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D143" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="65"/>
-      <c r="K143" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="74"/>
+      <c r="K143" s="37"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="39"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="65"/>
-      <c r="K144" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="74"/>
+      <c r="K144" s="37"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="39"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="65"/>
-      <c r="K145" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="74"/>
+      <c r="K145" s="37"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="39"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="65"/>
-      <c r="K146" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="37"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="39"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D147" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="65"/>
-      <c r="K147" s="29"/>
+        <v>171</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="74"/>
+      <c r="K147" s="37"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="39"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="65"/>
-      <c r="K148" s="29"/>
+      <c r="C148" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="74"/>
+      <c r="K148" s="37"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="39"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="65"/>
-      <c r="K149" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="37"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A150" s="39"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C150" s="25"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="31"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="75"/>
+      <c r="K150" s="71"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="39"/>
-      <c r="B151" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="52"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
-      <c r="H151" s="52"/>
-      <c r="I151" s="53"/>
-      <c r="J151" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="K151" s="64"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="K151" s="73"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="39"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D152" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="65"/>
-      <c r="K152" s="29"/>
+        <v>124</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="37"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="39"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D153" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="28"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="65"/>
-      <c r="K153" s="29"/>
+        <v>118</v>
+      </c>
+      <c r="D153" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="74"/>
+      <c r="K153" s="37"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="39"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E154" s="28"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="28"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="65"/>
-      <c r="K154" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="D154" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="74"/>
+      <c r="K154" s="37"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="39"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D155" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="65"/>
-      <c r="K155" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="74"/>
+      <c r="K155" s="37"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="39"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D156" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E156" s="28"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="28"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="65"/>
-      <c r="K156" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="37"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="39"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="65"/>
-      <c r="K157" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="37"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="39"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="29"/>
+        <v>116</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="34"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="37"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="39"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D159" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="37"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="39"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D160" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="65"/>
-      <c r="K160" s="29"/>
+        <v>130</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="34"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="37"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A161" s="39"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D161" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="66"/>
-      <c r="K161" s="31"/>
+      <c r="C161" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="75"/>
+      <c r="K161" s="71"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="49"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
-      <c r="I162" s="50"/>
-      <c r="J162" s="63" t="s">
-        <v>317</v>
-      </c>
-      <c r="K162" s="64"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="61"/>
+      <c r="J162" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="K162" s="73"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="39"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D163" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="65"/>
-      <c r="K163" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E163" s="34"/>
+      <c r="F163" s="34"/>
+      <c r="G163" s="34"/>
+      <c r="H163" s="34"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="74"/>
+      <c r="K163" s="37"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="39"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D164" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="65"/>
-      <c r="K164" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="74"/>
+      <c r="K164" s="37"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="39"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D165" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="65"/>
-      <c r="K165" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+      <c r="G165" s="34"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="37"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="39"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="65"/>
-      <c r="K166" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="34"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="74"/>
+      <c r="K166" s="37"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="39"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="65"/>
-      <c r="K167" s="29"/>
+      <c r="C167" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="37"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="39"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="65"/>
-      <c r="K168" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="37"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="39"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="65"/>
-      <c r="K169" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="37"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="39"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="65"/>
-      <c r="K170" s="29"/>
+        <v>84</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="37"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="39"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="65"/>
-      <c r="K171" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="37"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A172" s="40"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C172" s="20"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="32"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="66"/>
-      <c r="K172" s="31"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="41"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="71"/>
     </row>
     <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="B173" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C173" s="41"/>
-      <c r="D173" s="41"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41"/>
-      <c r="J173" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="K173" s="43"/>
+      <c r="A173" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B173" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C173" s="49"/>
+      <c r="D173" s="49"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
+      <c r="J173" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="K173" s="63"/>
     </row>
     <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="39"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="23" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C174" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D174" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D174" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E174" s="28"/>
+      <c r="E174" s="34"/>
       <c r="F174" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H174" s="34"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="44"/>
-      <c r="K174" s="45"/>
+        <v>285</v>
+      </c>
+      <c r="G174" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H174" s="35"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="64"/>
+      <c r="K174" s="65"/>
     </row>
     <row r="175" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="39"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="23" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E175" s="28"/>
+        <v>300</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="E175" s="34"/>
       <c r="F175" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G175" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H175" s="34"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="44"/>
-      <c r="K175" s="45"/>
+        <v>285</v>
+      </c>
+      <c r="G175" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H175" s="35"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="65"/>
     </row>
     <row r="176" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="39"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C176" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="44"/>
-      <c r="K176" s="45"/>
+        <v>329</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D176" s="35"/>
+      <c r="E176" s="35"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="64"/>
+      <c r="K176" s="65"/>
     </row>
     <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="39"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="23" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D177" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E177" s="28"/>
+        <v>301</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E177" s="34"/>
       <c r="F177" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G177" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H177" s="34"/>
-      <c r="I177" s="35"/>
-      <c r="J177" s="44"/>
-      <c r="K177" s="45"/>
+        <v>286</v>
+      </c>
+      <c r="G177" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H177" s="35"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="64"/>
+      <c r="K177" s="65"/>
     </row>
     <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="39"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="23" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D178" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E178" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="D178" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E178" s="34"/>
       <c r="F178" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G178" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="H178" s="34"/>
-      <c r="I178" s="35"/>
-      <c r="J178" s="44"/>
-      <c r="K178" s="45"/>
+        <v>286</v>
+      </c>
+      <c r="G178" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="H178" s="35"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="64"/>
+      <c r="K178" s="65"/>
     </row>
     <row r="179" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A179" s="40"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
+        <v>302</v>
+      </c>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
       <c r="F179" s="24"/>
-      <c r="G179" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="H179" s="36"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="47"/>
+      <c r="G179" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="H179" s="43"/>
+      <c r="I179" s="44"/>
+      <c r="J179" s="66"/>
+      <c r="K179" s="67"/>
     </row>
     <row r="180" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="181" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5426,20 +5463,19 @@
     <row r="185" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="186" spans="1:11" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="207">
-    <mergeCell ref="G10:I10"/>
+  <mergeCells count="208">
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:K10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="J11:K21"/>
     <mergeCell ref="J22:K32"/>
@@ -5449,27 +5485,20 @@
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D21:I21"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D29:I29"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D29:I29"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D25:I25"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="D34:I34"/>
     <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="D63:I63"/>
     <mergeCell ref="J162:K172"/>
     <mergeCell ref="D73:I73"/>
     <mergeCell ref="D74:I74"/>
@@ -5479,24 +5508,29 @@
     <mergeCell ref="D79:I79"/>
     <mergeCell ref="D80:I80"/>
     <mergeCell ref="D167:I167"/>
-    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D86:I86"/>
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D86:I86"/>
     <mergeCell ref="D88:I88"/>
     <mergeCell ref="D89:I89"/>
     <mergeCell ref="D130:I130"/>
     <mergeCell ref="D164:I164"/>
     <mergeCell ref="D165:I165"/>
     <mergeCell ref="D166:I166"/>
-    <mergeCell ref="D156:I156"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="D171:I171"/>
-    <mergeCell ref="D141:I141"/>
-    <mergeCell ref="J55:K66"/>
-    <mergeCell ref="J118:K128"/>
-    <mergeCell ref="J129:K139"/>
+    <mergeCell ref="D136:I136"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D155:I155"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="D138:I138"/>
+    <mergeCell ref="D134:I134"/>
+    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="D63:I63"/>
     <mergeCell ref="J140:K150"/>
     <mergeCell ref="J151:K161"/>
     <mergeCell ref="J97:K106"/>
@@ -5506,14 +5540,13 @@
     <mergeCell ref="J107:K117"/>
     <mergeCell ref="D99:I99"/>
     <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D98:I98"/>
     <mergeCell ref="B107:I107"/>
     <mergeCell ref="D161:I161"/>
-    <mergeCell ref="D66:I66"/>
     <mergeCell ref="D111:I111"/>
     <mergeCell ref="D116:I116"/>
     <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D101:I101"/>
     <mergeCell ref="D104:I104"/>
     <mergeCell ref="D105:I105"/>
     <mergeCell ref="D158:I158"/>
@@ -5521,17 +5554,33 @@
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B151:I151"/>
     <mergeCell ref="D106:I106"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="D155:I155"/>
-    <mergeCell ref="D136:I136"/>
-    <mergeCell ref="D137:I137"/>
-    <mergeCell ref="D138:I138"/>
-    <mergeCell ref="D139:I139"/>
-    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D170:I170"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C124:I124"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C146:I146"/>
+    <mergeCell ref="C157:I157"/>
+    <mergeCell ref="D131:I131"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="B118:I118"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D114:I114"/>
     <mergeCell ref="J173:K179"/>
     <mergeCell ref="A173:A179"/>
     <mergeCell ref="A67:A172"/>
-    <mergeCell ref="D21:I21"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="D69:I69"/>
@@ -5548,10 +5597,11 @@
     <mergeCell ref="D64:I64"/>
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="G175:I175"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D170:I170"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="J55:K66"/>
+    <mergeCell ref="J118:K128"/>
+    <mergeCell ref="J129:K139"/>
     <mergeCell ref="G179:I179"/>
     <mergeCell ref="D177:E177"/>
     <mergeCell ref="D175:E175"/>
@@ -5564,7 +5614,7 @@
     <mergeCell ref="B55:I55"/>
     <mergeCell ref="B87:I87"/>
     <mergeCell ref="B129:I129"/>
-    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:I90"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="D95:I95"/>
     <mergeCell ref="D96:I96"/>
@@ -5575,14 +5625,11 @@
     <mergeCell ref="D163:I163"/>
     <mergeCell ref="D91:I91"/>
     <mergeCell ref="B162:I162"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="C102:I102"/>
-    <mergeCell ref="C112:I112"/>
-    <mergeCell ref="C124:I124"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C146:I146"/>
-    <mergeCell ref="C157:I157"/>
-    <mergeCell ref="C168:I168"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D103:I103"/>
     <mergeCell ref="G177:I177"/>
     <mergeCell ref="G178:I178"/>
     <mergeCell ref="D143:I143"/>
@@ -5594,22 +5641,17 @@
     <mergeCell ref="D152:I152"/>
     <mergeCell ref="D153:I153"/>
     <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D131:I131"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="B118:I118"/>
-    <mergeCell ref="D134:I134"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D156:I156"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D171:I171"/>
     <mergeCell ref="D172:I172"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="C168:I168"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C139:I139"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:I10"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="C39:I39"/>
@@ -5620,7 +5662,7 @@
     <mergeCell ref="C82:I82"/>
     <mergeCell ref="C92:I92"/>
     <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D18:I18"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D48:I48"/>
     <mergeCell ref="D52:I52"/>
@@ -5630,10 +5672,6 @@
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D51:I51"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D49:I49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="343">
   <si>
     <t>22 June (Friday)</t>
   </si>
@@ -684,12 +684,6 @@
   </si>
   <si>
     <t>Nanoconfinement Effect in Metal-Organic Frameworks for the Purposes of Hydrogen Generation and Carbon Dioxide Adsorption</t>
-  </si>
-  <si>
-    <t>Qingwen Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalable Growth and Applications of Multifunctional CNT foams </t>
   </si>
   <si>
     <t>Yue Zhang</t>
@@ -1607,200 +1601,200 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2123,7 +2117,7 @@
   <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:I48"/>
+      <selection activeCell="C75" sqref="C75:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2158,13 +2152,13 @@
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="57.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -2185,13 +2179,13 @@
       <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -2202,3273 +2196,3262 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" s="77"/>
+      <c r="B4" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="84"/>
+      <c r="B8" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="84"/>
+      <c r="B9" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D9" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="22" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G9" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="84"/>
+      <c r="B10" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="43" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="G10" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="90" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="K11" s="68"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="37"/>
+      <c r="C12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="37"/>
+      <c r="C18" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="46"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="K22" s="68"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="48"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="55"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+        <v>331</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="K33" s="68"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="48"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="48"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="48"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="48"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="48"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="46"/>
+        <v>336</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="K44" s="37"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="48"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="37"/>
+        <v>272</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="48"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
+      <c r="D46" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="55"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="48"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="37"/>
+      <c r="D47" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
+      <c r="D48" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="48"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="55"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="48"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="48"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
+      <c r="D51" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="55"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="48"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
+      <c r="D52" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="48"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="37"/>
+      <c r="D53" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A54" s="48"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="46"/>
+      <c r="D54" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="57"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="K55" s="37"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="55"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="48"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="37"/>
+        <v>303</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="55"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="48"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="37"/>
+        <v>305</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="55"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="48"/>
+      <c r="A58" s="84"/>
       <c r="B58" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="55"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="48"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="D59" s="83" t="s">
-        <v>312</v>
-      </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
+        <v>309</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="55"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="48"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="55"/>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="84"/>
+      <c r="B61" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D60" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="48"/>
-      <c r="B61" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="37"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="55"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="48"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37"/>
+        <v>314</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="55"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="48"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="37"/>
+        <v>316</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="55"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="48"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="37"/>
+        <v>227</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="55"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A65" s="48"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="37"/>
+        <v>228</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="55"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="K66" s="68"/>
+      <c r="B66" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="K66" s="53"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="48"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="55"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="48"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="55"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="48"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="48"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="69"/>
-      <c r="K70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="55"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="48"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="48"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="48"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="69"/>
-      <c r="K73" s="37"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="48"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="55"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A75" s="48"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="46"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="57"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="48"/>
-      <c r="B76" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="K76" s="68"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="K76" s="53"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="48"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="37"/>
+      <c r="D77" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="55"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="48"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="48"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="69"/>
-      <c r="K79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="55"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="48"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="48"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="48"/>
+      <c r="A82" s="84"/>
       <c r="B82" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="37"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="55"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="48"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="55"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="48"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="37"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="55"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="48"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="46"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="57"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="48"/>
-      <c r="B86" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="K86" s="68"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K86" s="53"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="48"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="36" t="s">
+      <c r="D87" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="37"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="55"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="48"/>
+      <c r="A88" s="84"/>
       <c r="B88" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="55"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="48"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="D89" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="55"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="48"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="37"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="55"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="48"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="55"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="48"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D92" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="37"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="55"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="48"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="37"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="55"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="48"/>
+      <c r="A94" s="84"/>
       <c r="B94" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D94" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="37"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="55"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A95" s="48"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="35"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="46"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="57"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="48"/>
-      <c r="B96" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="K96" s="68"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="79"/>
+      <c r="J96" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="K96" s="53"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="48"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D97" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="37"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="55"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="48"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="37"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="55"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="48"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="36" t="s">
+      <c r="D99" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="55"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="48"/>
+      <c r="A100" s="84"/>
       <c r="B100" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="36" t="s">
+      <c r="D100" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="69"/>
-      <c r="K100" s="37"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="55"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="48"/>
+      <c r="A101" s="84"/>
       <c r="B101" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="55"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="48"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="37"/>
+      <c r="D102" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="55"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="48"/>
+      <c r="A103" s="84"/>
       <c r="B103" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="36" t="s">
+      <c r="D103" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="69"/>
-      <c r="K103" s="37"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="55"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="48"/>
+      <c r="A104" s="84"/>
       <c r="B104" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="37"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="55"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A105" s="48"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="46"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="57"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="48"/>
-      <c r="B106" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="K106" s="68"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="K106" s="53"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="48"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="37"/>
+        <v>229</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="55"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="48"/>
+      <c r="A108" s="84"/>
       <c r="B108" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="69"/>
-      <c r="K108" s="37"/>
+        <v>230</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="55"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="48"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="55"/>
+    </row>
+    <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="84"/>
+      <c r="B110" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="37"/>
-    </row>
-    <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="48"/>
-      <c r="B110" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="69"/>
-      <c r="K110" s="37"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="55"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="48"/>
-      <c r="B111" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="37"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" s="95"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
+      <c r="G111" s="95"/>
+      <c r="H111" s="95"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="55"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="48"/>
+      <c r="A112" s="84"/>
       <c r="B112" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D112" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="55"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="48"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D113" s="83" t="s">
-        <v>329</v>
-      </c>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="84"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="37"/>
+        <v>326</v>
+      </c>
+      <c r="D113" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="55"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="48"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="37"/>
+        <v>233</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="55"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="48"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="37"/>
+        <v>236</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="55"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A116" s="48"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="70"/>
-      <c r="K116" s="46"/>
+        <v>234</v>
+      </c>
+      <c r="D116" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="57"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="48"/>
-      <c r="B117" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="C117" s="88"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="K117" s="68"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="81"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="82"/>
+      <c r="J117" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="K117" s="53"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="48"/>
+      <c r="A118" s="84"/>
       <c r="B118" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="37"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="55"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="48"/>
+      <c r="A119" s="84"/>
       <c r="B119" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="36" t="s">
+      <c r="D119" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="69"/>
-      <c r="K119" s="37"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="55"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="48"/>
+      <c r="A120" s="84"/>
       <c r="B120" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="37"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="55"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="48"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D121" s="36" t="s">
+      <c r="D121" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="69"/>
-      <c r="K121" s="37"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="55"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="48"/>
+      <c r="A122" s="84"/>
       <c r="B122" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D122" s="36" t="s">
+      <c r="D122" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="69"/>
-      <c r="K122" s="37"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="55"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="48"/>
+      <c r="A123" s="84"/>
       <c r="B123" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="55"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="48"/>
+      <c r="A124" s="84"/>
       <c r="B124" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="36" t="s">
+      <c r="D124" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="37"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="55"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="48"/>
+      <c r="A125" s="84"/>
       <c r="B125" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D125" s="36" t="s">
+      <c r="D125" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="69"/>
-      <c r="K125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="55"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="48"/>
+      <c r="A126" s="84"/>
       <c r="B126" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D126" s="36" t="s">
+      <c r="D126" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="37"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A127" s="48"/>
+      <c r="A127" s="84"/>
       <c r="B127" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="70"/>
-      <c r="K127" s="46"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="57"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="48"/>
-      <c r="B128" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="K128" s="68"/>
+      <c r="A128" s="84"/>
+      <c r="B128" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="K128" s="53"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="48"/>
+      <c r="A129" s="84"/>
       <c r="B129" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="36" t="s">
+      <c r="D129" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="37"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="55"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="48"/>
+      <c r="A130" s="84"/>
       <c r="B130" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="69"/>
-      <c r="K130" s="37"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="55"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="48"/>
+      <c r="A131" s="84"/>
       <c r="B131" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D131" s="36" t="s">
+      <c r="D131" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="37"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="55"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="48"/>
+      <c r="A132" s="84"/>
       <c r="B132" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="69"/>
-      <c r="K132" s="37"/>
+        <v>338</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="55"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="48"/>
+      <c r="A133" s="84"/>
       <c r="B133" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D133" s="36" t="s">
+      <c r="D133" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="69"/>
-      <c r="K133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="55"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="48"/>
+      <c r="A134" s="84"/>
       <c r="B134" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="69"/>
-      <c r="K134" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="55"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="48"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D135" s="36" t="s">
+      <c r="D135" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="69"/>
-      <c r="K135" s="37"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="55"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="55"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="48"/>
+      <c r="A136" s="84"/>
       <c r="B136" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D136" s="36" t="s">
+      <c r="D136" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="69"/>
-      <c r="K136" s="37"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="55"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="48"/>
+      <c r="A137" s="84"/>
       <c r="B137" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D137" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="69"/>
-      <c r="K137" s="37"/>
+        <v>340</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="55"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A138" s="48"/>
+      <c r="A138" s="84"/>
       <c r="B138" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="45"/>
-      <c r="K138" s="46"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="99"/>
+      <c r="F138" s="99"/>
+      <c r="G138" s="99"/>
+      <c r="H138" s="99"/>
+      <c r="I138" s="100"/>
+      <c r="J138" s="59"/>
+      <c r="K138" s="57"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="48"/>
-      <c r="B139" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C139" s="85"/>
-      <c r="D139" s="85"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85"/>
-      <c r="H139" s="85"/>
-      <c r="I139" s="86"/>
-      <c r="J139" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="K139" s="68"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="88"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="88"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="89"/>
+      <c r="J139" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K139" s="53"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="48"/>
+      <c r="A140" s="84"/>
       <c r="B140" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D140" s="36" t="s">
+      <c r="D140" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="69"/>
-      <c r="K140" s="37"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="55"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="48"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D141" s="36" t="s">
+      <c r="D141" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="69"/>
-      <c r="K141" s="37"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="55"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="55"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="48"/>
+      <c r="A142" s="84"/>
       <c r="B142" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D142" s="36" t="s">
+      <c r="D142" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="69"/>
-      <c r="K142" s="37"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="55"/>
+      <c r="J142" s="54"/>
+      <c r="K142" s="55"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="48"/>
+      <c r="A143" s="84"/>
       <c r="B143" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C143" s="8"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="69"/>
-      <c r="K143" s="37"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="55"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="55"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="48"/>
+      <c r="A144" s="84"/>
       <c r="B144" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D144" s="36" t="s">
+      <c r="D144" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="69"/>
-      <c r="K144" s="37"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="55"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="55"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="48"/>
+      <c r="A145" s="84"/>
       <c r="B145" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="69"/>
-      <c r="K145" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="55"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="48"/>
+      <c r="A146" s="84"/>
       <c r="B146" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="69"/>
-      <c r="K146" s="37"/>
+      <c r="D146" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E146" s="38"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="55"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="48"/>
+      <c r="A147" s="84"/>
       <c r="B147" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C147" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D147" s="36" t="s">
+      <c r="D147" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="69"/>
-      <c r="K147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="55"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="48"/>
+      <c r="A148" s="84"/>
       <c r="B148" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D148" s="36" t="s">
+      <c r="D148" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="69"/>
-      <c r="K148" s="37"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="55"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A149" s="48"/>
+      <c r="A149" s="84"/>
       <c r="B149" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C149" s="25"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="38"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="39"/>
-      <c r="J149" s="70"/>
-      <c r="K149" s="46"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="86"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="86"/>
+      <c r="I149" s="87"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="57"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="48"/>
-      <c r="B150" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="K150" s="68"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="79"/>
+      <c r="J150" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="K150" s="53"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="48"/>
+      <c r="A151" s="84"/>
       <c r="B151" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D151" s="36" t="s">
+      <c r="D151" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="69"/>
-      <c r="K151" s="37"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="55"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="55"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="48"/>
+      <c r="A152" s="84"/>
       <c r="B152" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="36" t="s">
+      <c r="D152" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="37"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="55"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="48"/>
+      <c r="A153" s="84"/>
       <c r="B153" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="36" t="s">
+      <c r="D153" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E153" s="36"/>
-      <c r="F153" s="36"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="69"/>
-      <c r="K153" s="37"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="55"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="84"/>
       <c r="B154" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D154" s="36" t="s">
+      <c r="D154" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="37"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="55"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="48"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D155" s="36" t="s">
+      <c r="D155" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="69"/>
-      <c r="K155" s="37"/>
+      <c r="E155" s="38"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="55"/>
+      <c r="J155" s="54"/>
+      <c r="K155" s="55"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="48"/>
+      <c r="A156" s="84"/>
       <c r="B156" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="69"/>
-      <c r="K156" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D156" s="38"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="55"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="55"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="48"/>
+      <c r="A157" s="84"/>
       <c r="B157" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="36" t="s">
+      <c r="D157" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="69"/>
-      <c r="K157" s="37"/>
+      <c r="E157" s="38"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="55"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="55"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="48"/>
+      <c r="A158" s="84"/>
       <c r="B158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D158" s="36" t="s">
+      <c r="D158" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="69"/>
-      <c r="K158" s="37"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="55"/>
+      <c r="J158" s="54"/>
+      <c r="K158" s="55"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="48"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D159" s="36" t="s">
+      <c r="D159" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="69"/>
-      <c r="K159" s="37"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="54"/>
+      <c r="K159" s="55"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A160" s="48"/>
+      <c r="A160" s="84"/>
       <c r="B160" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C160" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D160" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="70"/>
-      <c r="K160" s="46"/>
+      <c r="D160" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E160" s="38"/>
+      <c r="F160" s="38"/>
+      <c r="G160" s="38"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="55"/>
+      <c r="J160" s="56"/>
+      <c r="K160" s="57"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="48"/>
-      <c r="B161" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C161" s="62"/>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="62"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="63"/>
-      <c r="J161" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="K161" s="68"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="75"/>
+      <c r="D161" s="75"/>
+      <c r="E161" s="75"/>
+      <c r="F161" s="75"/>
+      <c r="G161" s="75"/>
+      <c r="H161" s="75"/>
+      <c r="I161" s="76"/>
+      <c r="J161" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="K161" s="53"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="48"/>
+      <c r="A162" s="84"/>
       <c r="B162" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C162" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="69"/>
-      <c r="K162" s="37"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="55"/>
+      <c r="J162" s="54"/>
+      <c r="K162" s="55"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="48"/>
+      <c r="A163" s="84"/>
       <c r="B163" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D163" s="36" t="s">
+      <c r="D163" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="69"/>
-      <c r="K163" s="37"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="55"/>
+      <c r="J163" s="54"/>
+      <c r="K163" s="55"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="48"/>
+      <c r="A164" s="84"/>
       <c r="B164" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D164" s="36" t="s">
+      <c r="D164" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="69"/>
-      <c r="K164" s="37"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="38"/>
+      <c r="G164" s="38"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="55"/>
+      <c r="J164" s="54"/>
+      <c r="K164" s="55"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="48"/>
+      <c r="A165" s="84"/>
       <c r="B165" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="36" t="s">
+      <c r="D165" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="69"/>
-      <c r="K165" s="37"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="55"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="55"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="48"/>
+      <c r="A166" s="84"/>
       <c r="B166" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D166" s="36" t="s">
+      <c r="D166" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="69"/>
-      <c r="K166" s="37"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="55"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="48"/>
+      <c r="A167" s="84"/>
       <c r="B167" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="69"/>
-      <c r="K167" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="C167" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="55"/>
+      <c r="J167" s="54"/>
+      <c r="K167" s="55"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="48"/>
+      <c r="A168" s="84"/>
       <c r="B168" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D168" s="36" t="s">
+      <c r="D168" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="69"/>
-      <c r="K168" s="37"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="54"/>
+      <c r="K168" s="55"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="48"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="36" t="s">
+      <c r="D169" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="69"/>
-      <c r="K169" s="37"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="55"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="48"/>
+      <c r="A170" s="84"/>
       <c r="B170" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D170" s="36" t="s">
+      <c r="D170" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="69"/>
-      <c r="K170" s="37"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="54"/>
+      <c r="K170" s="55"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A171" s="82"/>
+      <c r="A171" s="85"/>
       <c r="B171" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C171" s="20"/>
-      <c r="D171" s="38"/>
-      <c r="E171" s="38"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="38"/>
-      <c r="I171" s="39"/>
-      <c r="J171" s="70"/>
-      <c r="K171" s="46"/>
+      <c r="D171" s="86"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="86"/>
+      <c r="G171" s="86"/>
+      <c r="H171" s="86"/>
+      <c r="I171" s="87"/>
+      <c r="J171" s="56"/>
+      <c r="K171" s="57"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="B172" s="49" t="s">
+      <c r="A172" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B172" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="K172" s="49"/>
+    </row>
+    <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="84"/>
+      <c r="B173" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D173" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E173" s="38"/>
+      <c r="F173" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G173" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H173" s="36"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="51"/>
+    </row>
+    <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="84"/>
+      <c r="B174" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D174" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E174" s="38"/>
+      <c r="F174" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G174" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H174" s="36"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="51"/>
+    </row>
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="84"/>
+      <c r="B175" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="51"/>
+    </row>
+    <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="84"/>
+      <c r="B176" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E176" s="38"/>
+      <c r="F176" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G176" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H176" s="36"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="51"/>
+    </row>
+    <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="84"/>
+      <c r="B177" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D177" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E177" s="38"/>
+      <c r="F177" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G177" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H177" s="36"/>
+      <c r="I177" s="37"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="51"/>
+    </row>
+    <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A178" s="85"/>
+      <c r="B178" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D178" s="59"/>
+      <c r="E178" s="59"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C172" s="49"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="K172" s="77"/>
-    </row>
-    <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="48"/>
-      <c r="B173" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E173" s="36"/>
-      <c r="F173" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G173" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H173" s="43"/>
-      <c r="I173" s="44"/>
-      <c r="J173" s="78"/>
-      <c r="K173" s="79"/>
-    </row>
-    <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="48"/>
-      <c r="B174" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D174" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E174" s="36"/>
-      <c r="F174" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G174" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H174" s="43"/>
-      <c r="I174" s="44"/>
-      <c r="J174" s="78"/>
-      <c r="K174" s="79"/>
-    </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="48"/>
-      <c r="B175" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C175" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="44"/>
-      <c r="J175" s="78"/>
-      <c r="K175" s="79"/>
-    </row>
-    <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="48"/>
-      <c r="B176" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="D176" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E176" s="36"/>
-      <c r="F176" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G176" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H176" s="43"/>
-      <c r="I176" s="44"/>
-      <c r="J176" s="78"/>
-      <c r="K176" s="79"/>
-    </row>
-    <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="48"/>
-      <c r="B177" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D177" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="E177" s="36"/>
-      <c r="F177" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G177" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="H177" s="43"/>
-      <c r="I177" s="44"/>
-      <c r="J177" s="78"/>
-      <c r="K177" s="79"/>
-    </row>
-    <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A178" s="82"/>
-      <c r="B178" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D178" s="45"/>
-      <c r="E178" s="45"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="71" t="s">
-        <v>251</v>
-      </c>
-      <c r="H178" s="71"/>
-      <c r="I178" s="72"/>
-      <c r="J178" s="80"/>
-      <c r="K178" s="81"/>
+      <c r="H178" s="92"/>
+      <c r="I178" s="93"/>
+      <c r="J178" s="90"/>
+      <c r="K178" s="91"/>
     </row>
     <row r="179" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="180" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5478,60 +5461,136 @@
     <row r="184" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="185" spans="1:11" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J11:K21"/>
-    <mergeCell ref="J22:K32"/>
-    <mergeCell ref="J33:K43"/>
-    <mergeCell ref="J44:K54"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
+  <mergeCells count="205">
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="D171:I171"/>
+    <mergeCell ref="C167:I167"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="C71:I71"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="D65:I65"/>
     <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="D163:I163"/>
-    <mergeCell ref="D166:I166"/>
-    <mergeCell ref="D164:I164"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D136:I136"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A4:A65"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B128:I128"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="B161:I161"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="J55:K65"/>
+    <mergeCell ref="J117:K127"/>
+    <mergeCell ref="J128:K138"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D148:I148"/>
+    <mergeCell ref="D144:I144"/>
+    <mergeCell ref="D151:I151"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="D153:I153"/>
+    <mergeCell ref="D155:I155"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="D170:I170"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="J172:K178"/>
+    <mergeCell ref="J139:K149"/>
+    <mergeCell ref="J150:K160"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="J161:K171"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D146:I146"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A66:A171"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D149:I149"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D168:I168"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="D157:I157"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="B139:I139"/>
+    <mergeCell ref="B150:I150"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D169:I169"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="C123:I123"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C145:I145"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="D131:I131"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="D84:I84"/>
     <mergeCell ref="J96:K105"/>
     <mergeCell ref="J86:K95"/>
     <mergeCell ref="J76:K85"/>
@@ -5556,135 +5615,58 @@
     <mergeCell ref="D79:I79"/>
     <mergeCell ref="D85:I85"/>
     <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D169:I169"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="C123:I123"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C145:I145"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="D130:I130"/>
-    <mergeCell ref="D131:I131"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D141:I141"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="A66:A171"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D149:I149"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D168:I168"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="D157:I157"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="B150:I150"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="J172:K178"/>
-    <mergeCell ref="J139:K149"/>
-    <mergeCell ref="J150:K160"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="J161:K171"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="D142:I142"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D146:I146"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="J55:K65"/>
-    <mergeCell ref="J117:K127"/>
-    <mergeCell ref="J128:K138"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C175:I175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D148:I148"/>
-    <mergeCell ref="D144:I144"/>
-    <mergeCell ref="D151:I151"/>
-    <mergeCell ref="D152:I152"/>
-    <mergeCell ref="D153:I153"/>
-    <mergeCell ref="D155:I155"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="D170:I170"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A4:A65"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B128:I128"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="B161:I161"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="D171:I171"/>
-    <mergeCell ref="C167:I167"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="C71:I71"/>
-    <mergeCell ref="C81:I81"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="D163:I163"/>
+    <mergeCell ref="D166:I166"/>
+    <mergeCell ref="D164:I164"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="D136:I136"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="J11:K21"/>
+    <mergeCell ref="J22:K32"/>
+    <mergeCell ref="J33:K43"/>
+    <mergeCell ref="J44:K54"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
     <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -1568,9 +1568,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,13 +1598,175 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,169 +1790,10 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:I75"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2152,13 +2152,13 @@
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="57.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -2179,13 +2179,13 @@
       <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -2196,3262 +2196,3269 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="84"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="84"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="23" t="s">
         <v>333</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="84"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="23" t="s">
         <v>290</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="84"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="23" t="s">
         <v>291</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="52" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="K11" s="53"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="84"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="84"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="84"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="84"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="84"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="58" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="55"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="84"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="55"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="84"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="55"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="84"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="55"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="84"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="55"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="84"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="55"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="84"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="55"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="55"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="55"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="33" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="55"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="52" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="K33" s="53"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="84"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="84"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="84"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="84"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="84"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="55"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="84"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="55"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="84"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="55"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="84"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="55"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="84"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="57"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="77" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="38" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="K44" s="55"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="84"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="55"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="84"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="55"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="84"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="55"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="84"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="55"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="84"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="55"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="55"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="84"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="55"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="84"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="55"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="84"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="55"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A54" s="84"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="57"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="84"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="38" t="s">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="K55" s="55"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="55"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="84"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="55"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="84"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="55"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="36"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="84"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="55"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="36"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="84"/>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="55"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="84"/>
-      <c r="B61" s="94" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="55"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="84"/>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="55"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="84"/>
-      <c r="B63" s="29" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="55"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="36"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="84"/>
-      <c r="B64" s="29" t="s">
+      <c r="A64" s="46"/>
+      <c r="B64" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="55"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A65" s="84"/>
-      <c r="B65" s="30" t="s">
+      <c r="A65" s="46"/>
+      <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="55"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="36"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="52" t="s">
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="K66" s="53"/>
+      <c r="K66" s="66"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="84"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="55"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="84"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="55"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="84"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="84"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="46"/>
+      <c r="B70" s="25" t="s">
         <v>276</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="84"/>
-      <c r="B71" s="26" t="s">
+      <c r="A71" s="46"/>
+      <c r="B71" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="55"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="36"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="84"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="84"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="55"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="84"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="55"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="36"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A75" s="84"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="57"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="84"/>
-      <c r="B76" s="74" t="s">
+      <c r="A76" s="46"/>
+      <c r="B76" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="52" t="s">
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="K76" s="53"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="84"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="84"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="84"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="55"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="84"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="84"/>
-      <c r="B81" s="26" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="55"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="36"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="84"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="55"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="84"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="55"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="84"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="55"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="84"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="57"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="44"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="66" t="s">
+      <c r="A86" s="46"/>
+      <c r="B86" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="52" t="s">
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="K86" s="53"/>
+      <c r="K86" s="66"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="84"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="55"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="84"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="55"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="84"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="55"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="84"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="55"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="84"/>
-      <c r="B91" s="26" t="s">
+      <c r="A91" s="46"/>
+      <c r="B91" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="55"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="84"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="55"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="84"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="55"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="84"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="55"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A95" s="84"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="57"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="44"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="84"/>
-      <c r="B96" s="77" t="s">
+      <c r="A96" s="46"/>
+      <c r="B96" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="C96" s="78"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
-      <c r="H96" s="78"/>
-      <c r="I96" s="79"/>
-      <c r="J96" s="52" t="s">
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="K96" s="53"/>
+      <c r="K96" s="66"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="84"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="55"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="84"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="38" t="s">
+      <c r="D98" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="55"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="84"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="38" t="s">
+      <c r="D99" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="55"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="84"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="38" t="s">
+      <c r="D100" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="55"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="84"/>
-      <c r="B101" s="26" t="s">
+      <c r="A101" s="46"/>
+      <c r="B101" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="55"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="84"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="55"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="84"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="38" t="s">
+      <c r="D103" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="55"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="84"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="55"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A105" s="84"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="D105" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="57"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="44"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="84"/>
-      <c r="B106" s="71" t="s">
+      <c r="A106" s="46"/>
+      <c r="B106" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="52" t="s">
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="K106" s="53"/>
+      <c r="K106" s="66"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="84"/>
-      <c r="B107" s="29" t="s">
+      <c r="A107" s="46"/>
+      <c r="B107" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="55"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="36"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="84"/>
-      <c r="B108" s="29" t="s">
+      <c r="A108" s="46"/>
+      <c r="B108" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D108" s="38" t="s">
+      <c r="D108" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="84"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="46"/>
+      <c r="B109" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="84"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="28" t="s">
         <v>323</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="55"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="84"/>
-      <c r="B111" s="94" t="s">
+      <c r="A111" s="46"/>
+      <c r="B111" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="95"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="84"/>
-      <c r="B112" s="29" t="s">
+      <c r="A112" s="46"/>
+      <c r="B112" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D112" s="38" t="s">
+      <c r="D112" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="55"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="84"/>
-      <c r="B113" s="32" t="s">
+      <c r="A113" s="46"/>
+      <c r="B113" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="D113" s="69" t="s">
+      <c r="D113" s="81" t="s">
         <v>327</v>
       </c>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="55"/>
+      <c r="E113" s="81"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="81"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="84"/>
-      <c r="B114" s="29" t="s">
+      <c r="A114" s="46"/>
+      <c r="B114" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="38" t="s">
+      <c r="D114" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="84"/>
-      <c r="B115" s="29" t="s">
+      <c r="A115" s="46"/>
+      <c r="B115" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="38" t="s">
+      <c r="D115" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="55"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A116" s="84"/>
-      <c r="B116" s="30" t="s">
+      <c r="A116" s="46"/>
+      <c r="B116" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="57"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="44"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="84"/>
-      <c r="B117" s="80" t="s">
+      <c r="A117" s="46"/>
+      <c r="B117" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="81"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="81"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="81"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="82"/>
-      <c r="J117" s="52" t="s">
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="86"/>
+      <c r="F117" s="86"/>
+      <c r="G117" s="86"/>
+      <c r="H117" s="86"/>
+      <c r="I117" s="87"/>
+      <c r="J117" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="K117" s="53"/>
+      <c r="K117" s="66"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="84"/>
+      <c r="A118" s="46"/>
       <c r="B118" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D118" s="38" t="s">
+      <c r="D118" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="55"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="67"/>
+      <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="84"/>
+      <c r="A119" s="46"/>
       <c r="B119" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="55"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="55"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="84"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="55"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="84"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D121" s="38" t="s">
+      <c r="D121" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="55"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="84"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D122" s="38" t="s">
+      <c r="D122" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="55"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="84"/>
-      <c r="B123" s="26" t="s">
+      <c r="A123" s="46"/>
+      <c r="B123" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="55"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="84"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="38" t="s">
+      <c r="D124" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="55"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="84"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D125" s="38" t="s">
+      <c r="D125" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="55"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="84"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D126" s="38" t="s">
+      <c r="D126" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="55"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A127" s="84"/>
+      <c r="A127" s="46"/>
       <c r="B127" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D127" s="38" t="s">
+      <c r="D127" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="57"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="68"/>
+      <c r="K127" s="44"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="84"/>
-      <c r="B128" s="60" t="s">
+      <c r="A128" s="46"/>
+      <c r="B128" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="52" t="s">
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="K128" s="53"/>
+      <c r="K128" s="66"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="84"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="55"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="84"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="38" t="s">
+      <c r="D130" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="55"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="84"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D131" s="38" t="s">
+      <c r="D131" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="55"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="55"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="84"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D132" s="38" t="s">
+      <c r="D132" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="55"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="84"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D133" s="38" t="s">
+      <c r="D133" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="55"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="67"/>
+      <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="84"/>
-      <c r="B134" s="26" t="s">
+      <c r="A134" s="46"/>
+      <c r="B134" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="55"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="67"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="84"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D135" s="38" t="s">
+      <c r="D135" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="55"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="55"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="67"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="84"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D136" s="38" t="s">
+      <c r="D136" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="55"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="55"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="67"/>
+      <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="84"/>
+      <c r="A137" s="46"/>
       <c r="B137" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D137" s="38" t="s">
+      <c r="D137" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="55"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="67"/>
+      <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A138" s="84"/>
+      <c r="A138" s="46"/>
       <c r="B138" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="99"/>
-      <c r="D138" s="99"/>
-      <c r="E138" s="99"/>
-      <c r="F138" s="99"/>
-      <c r="G138" s="99"/>
-      <c r="H138" s="99"/>
-      <c r="I138" s="100"/>
-      <c r="J138" s="59"/>
-      <c r="K138" s="57"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="44"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="84"/>
-      <c r="B139" s="66" t="s">
+      <c r="A139" s="46"/>
+      <c r="B139" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="88"/>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="88"/>
-      <c r="I139" s="89"/>
-      <c r="J139" s="52" t="s">
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="84"/>
+      <c r="J139" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="K139" s="53"/>
+      <c r="K139" s="66"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="84"/>
+      <c r="A140" s="46"/>
       <c r="B140" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D140" s="38" t="s">
+      <c r="D140" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="55"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="55"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="67"/>
+      <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="84"/>
+      <c r="A141" s="46"/>
       <c r="B141" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="55"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="55"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="84"/>
+      <c r="A142" s="46"/>
       <c r="B142" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D142" s="38" t="s">
+      <c r="D142" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E142" s="38"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="38"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="55"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="55"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="67"/>
+      <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="84"/>
+      <c r="A143" s="46"/>
       <c r="B143" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="55"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="55"/>
+      <c r="C143" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="84"/>
+      <c r="A144" s="46"/>
       <c r="B144" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D144" s="38" t="s">
+      <c r="D144" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="55"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="55"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="67"/>
+      <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="84"/>
-      <c r="B145" s="26" t="s">
+      <c r="A145" s="46"/>
+      <c r="B145" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="55"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="67"/>
+      <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="84"/>
+      <c r="A146" s="46"/>
       <c r="B146" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="38" t="s">
+      <c r="D146" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E146" s="38"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="55"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="67"/>
+      <c r="K146" s="36"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="84"/>
+      <c r="A147" s="46"/>
       <c r="B147" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="38"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="55"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="67"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="84"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D148" s="38" t="s">
+      <c r="D148" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="55"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="55"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="67"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A149" s="84"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="25"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="86"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="86"/>
-      <c r="H149" s="86"/>
-      <c r="I149" s="87"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="57"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="44"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="84"/>
-      <c r="B150" s="77" t="s">
+      <c r="A150" s="46"/>
+      <c r="B150" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78"/>
-      <c r="I150" s="79"/>
-      <c r="J150" s="52" t="s">
+      <c r="C150" s="63"/>
+      <c r="D150" s="63"/>
+      <c r="E150" s="63"/>
+      <c r="F150" s="63"/>
+      <c r="G150" s="63"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="64"/>
+      <c r="J150" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="K150" s="53"/>
+      <c r="K150" s="66"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="84"/>
+      <c r="A151" s="46"/>
       <c r="B151" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D151" s="38" t="s">
+      <c r="D151" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E151" s="38"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="55"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="67"/>
+      <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="84"/>
+      <c r="A152" s="46"/>
       <c r="B152" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="38" t="s">
+      <c r="D152" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="38"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="54"/>
-      <c r="K152" s="55"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="67"/>
+      <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="84"/>
+      <c r="A153" s="46"/>
       <c r="B153" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="D153" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E153" s="38"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="55"/>
-      <c r="J153" s="54"/>
-      <c r="K153" s="55"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="67"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="84"/>
+      <c r="A154" s="46"/>
       <c r="B154" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D154" s="38" t="s">
+      <c r="D154" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="38"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="54"/>
-      <c r="K154" s="55"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="67"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="84"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D155" s="38" t="s">
+      <c r="D155" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E155" s="38"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="55"/>
-      <c r="J155" s="54"/>
-      <c r="K155" s="55"/>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="67"/>
+      <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="84"/>
-      <c r="B156" s="26" t="s">
+      <c r="A156" s="46"/>
+      <c r="B156" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C156" s="38" t="s">
+      <c r="C156" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D156" s="38"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="55"/>
-      <c r="J156" s="54"/>
-      <c r="K156" s="55"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="67"/>
+      <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="84"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="38" t="s">
+      <c r="D157" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E157" s="38"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="55"/>
-      <c r="J157" s="54"/>
-      <c r="K157" s="55"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="67"/>
+      <c r="K157" s="36"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="84"/>
+      <c r="A158" s="46"/>
       <c r="B158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D158" s="38" t="s">
+      <c r="D158" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="38"/>
-      <c r="I158" s="55"/>
-      <c r="J158" s="54"/>
-      <c r="K158" s="55"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="67"/>
+      <c r="K158" s="36"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="84"/>
+      <c r="A159" s="46"/>
       <c r="B159" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="D159" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E159" s="38"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="38"/>
-      <c r="H159" s="38"/>
-      <c r="I159" s="55"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="55"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="36"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A160" s="84"/>
+      <c r="A160" s="46"/>
       <c r="B160" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D160" s="38" t="s">
+      <c r="D160" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="38"/>
-      <c r="H160" s="38"/>
-      <c r="I160" s="55"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="57"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="68"/>
+      <c r="K160" s="44"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="84"/>
-      <c r="B161" s="74" t="s">
+      <c r="A161" s="46"/>
+      <c r="B161" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="C161" s="75"/>
-      <c r="D161" s="75"/>
-      <c r="E161" s="75"/>
-      <c r="F161" s="75"/>
-      <c r="G161" s="75"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="76"/>
-      <c r="J161" s="52" t="s">
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="61"/>
+      <c r="J161" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="K161" s="53"/>
+      <c r="K161" s="66"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="84"/>
+      <c r="A162" s="46"/>
       <c r="B162" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D162" s="38" t="s">
+      <c r="D162" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="38"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="38"/>
-      <c r="H162" s="38"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="54"/>
-      <c r="K162" s="55"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="67"/>
+      <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="84"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D163" s="38" t="s">
+      <c r="D163" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E163" s="38"/>
-      <c r="F163" s="38"/>
-      <c r="G163" s="38"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="55"/>
-      <c r="J163" s="54"/>
-      <c r="K163" s="55"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="67"/>
+      <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="84"/>
+      <c r="A164" s="46"/>
       <c r="B164" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D164" s="38" t="s">
+      <c r="D164" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="38"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="55"/>
-      <c r="J164" s="54"/>
-      <c r="K164" s="55"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="67"/>
+      <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="84"/>
+      <c r="A165" s="46"/>
       <c r="B165" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="38" t="s">
+      <c r="D165" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E165" s="38"/>
-      <c r="F165" s="38"/>
-      <c r="G165" s="38"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="54"/>
-      <c r="K165" s="55"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="67"/>
+      <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="84"/>
+      <c r="A166" s="46"/>
       <c r="B166" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D166" s="38" t="s">
+      <c r="D166" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E166" s="38"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="55"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="55"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="67"/>
+      <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="84"/>
-      <c r="B167" s="26" t="s">
+      <c r="A167" s="46"/>
+      <c r="B167" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="D167" s="38"/>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="38"/>
-      <c r="H167" s="38"/>
-      <c r="I167" s="55"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="55"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="67"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="84"/>
+      <c r="A168" s="46"/>
       <c r="B168" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D168" s="38" t="s">
+      <c r="D168" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="38"/>
-      <c r="H168" s="38"/>
-      <c r="I168" s="55"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="55"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="67"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="84"/>
+      <c r="A169" s="46"/>
       <c r="B169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="38" t="s">
+      <c r="D169" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="55"/>
-      <c r="J169" s="54"/>
-      <c r="K169" s="55"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="36"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="84"/>
+      <c r="A170" s="46"/>
       <c r="B170" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D170" s="38" t="s">
+      <c r="D170" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E170" s="38"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="38"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="54"/>
-      <c r="K170" s="55"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="36"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A171" s="85"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C171" s="20"/>
-      <c r="D171" s="86"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="86"/>
-      <c r="G171" s="86"/>
-      <c r="H171" s="86"/>
-      <c r="I171" s="87"/>
-      <c r="J171" s="56"/>
-      <c r="K171" s="57"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="38"/>
+      <c r="J171" s="68"/>
+      <c r="K171" s="44"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="83" t="s">
+      <c r="A172" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="46"/>
-      <c r="J172" s="48" t="s">
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47"/>
+      <c r="I172" s="47"/>
+      <c r="J172" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="K172" s="49"/>
+      <c r="K172" s="75"/>
     </row>
     <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="84"/>
+      <c r="A173" s="46"/>
       <c r="B173" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C173" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D173" s="38" t="s">
+      <c r="D173" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E173" s="38"/>
+      <c r="E173" s="35"/>
       <c r="F173" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="G173" s="36" t="s">
+      <c r="G173" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H173" s="36"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="51"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="77"/>
     </row>
     <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="84"/>
+      <c r="A174" s="46"/>
       <c r="B174" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D174" s="38" t="s">
+      <c r="D174" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="E174" s="38"/>
+      <c r="E174" s="35"/>
       <c r="F174" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H174" s="36"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="50"/>
-      <c r="K174" s="51"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="42"/>
+      <c r="J174" s="76"/>
+      <c r="K174" s="77"/>
     </row>
     <row r="175" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="84"/>
-      <c r="B175" s="26" t="s">
+      <c r="A175" s="46"/>
+      <c r="B175" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C175" s="36" t="s">
+      <c r="C175" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="50"/>
-      <c r="K175" s="51"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="42"/>
+      <c r="J175" s="76"/>
+      <c r="K175" s="77"/>
     </row>
     <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="84"/>
+      <c r="A176" s="46"/>
       <c r="B176" s="23" t="s">
         <v>290</v>
       </c>
       <c r="C176" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D176" s="38" t="s">
+      <c r="D176" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="E176" s="38"/>
+      <c r="E176" s="35"/>
       <c r="F176" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G176" s="36" t="s">
+      <c r="G176" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H176" s="36"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="50"/>
-      <c r="K176" s="51"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="76"/>
+      <c r="K176" s="77"/>
     </row>
     <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="84"/>
+      <c r="A177" s="46"/>
       <c r="B177" s="23" t="s">
         <v>291</v>
       </c>
       <c r="C177" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D177" s="38" t="s">
+      <c r="D177" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="E177" s="38"/>
+      <c r="E177" s="35"/>
       <c r="F177" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G177" s="36" t="s">
+      <c r="G177" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H177" s="36"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="50"/>
-      <c r="K177" s="51"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="76"/>
+      <c r="K177" s="77"/>
     </row>
     <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A178" s="85"/>
+      <c r="A178" s="80"/>
       <c r="B178" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D178" s="59"/>
-      <c r="E178" s="59"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="43"/>
       <c r="F178" s="24"/>
-      <c r="G178" s="92" t="s">
+      <c r="G178" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="H178" s="92"/>
-      <c r="I178" s="93"/>
-      <c r="J178" s="90"/>
-      <c r="K178" s="91"/>
+      <c r="H178" s="69"/>
+      <c r="I178" s="70"/>
+      <c r="J178" s="78"/>
+      <c r="K178" s="79"/>
     </row>
     <row r="179" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="180" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5461,7 +5468,187 @@
     <row r="184" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="185" spans="1:11" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="204">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J11:K21"/>
+    <mergeCell ref="J22:K32"/>
+    <mergeCell ref="J33:K43"/>
+    <mergeCell ref="J44:K54"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="D136:I136"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="J96:K105"/>
+    <mergeCell ref="J86:K95"/>
+    <mergeCell ref="J76:K85"/>
+    <mergeCell ref="J66:K75"/>
+    <mergeCell ref="J106:K116"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D169:I169"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="C123:I123"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C145:I145"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="D131:I131"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="A66:A171"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D168:I168"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D157:I157"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="B139:I139"/>
+    <mergeCell ref="B150:I150"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="J172:K178"/>
+    <mergeCell ref="J139:K149"/>
+    <mergeCell ref="J150:K160"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="J161:K171"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="D146:I146"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="D163:I163"/>
+    <mergeCell ref="D166:I166"/>
+    <mergeCell ref="D164:I164"/>
+    <mergeCell ref="J55:K65"/>
+    <mergeCell ref="J117:K127"/>
+    <mergeCell ref="J128:K138"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C175:I175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D148:I148"/>
+    <mergeCell ref="D144:I144"/>
+    <mergeCell ref="D151:I151"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="D153:I153"/>
+    <mergeCell ref="D155:I155"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="D170:I170"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="A4:A65"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B128:I128"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="B161:I161"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="A172:A178"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="D40:I40"/>
@@ -5486,187 +5673,6 @@
     <mergeCell ref="D53:I53"/>
     <mergeCell ref="D54:I54"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A4:A65"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B128:I128"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="B161:I161"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="J55:K65"/>
-    <mergeCell ref="J117:K127"/>
-    <mergeCell ref="J128:K138"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C175:I175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D148:I148"/>
-    <mergeCell ref="D144:I144"/>
-    <mergeCell ref="D151:I151"/>
-    <mergeCell ref="D152:I152"/>
-    <mergeCell ref="D153:I153"/>
-    <mergeCell ref="D155:I155"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="D170:I170"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="J172:K178"/>
-    <mergeCell ref="J139:K149"/>
-    <mergeCell ref="J150:K160"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="J161:K171"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="D142:I142"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D146:I146"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="A172:A178"/>
-    <mergeCell ref="A66:A171"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D149:I149"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D168:I168"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="D157:I157"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="B150:I150"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D169:I169"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="C123:I123"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C145:I145"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="D130:I130"/>
-    <mergeCell ref="D131:I131"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D141:I141"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="J96:K105"/>
-    <mergeCell ref="J86:K95"/>
-    <mergeCell ref="J76:K85"/>
-    <mergeCell ref="J66:K75"/>
-    <mergeCell ref="J106:K116"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="D163:I163"/>
-    <mergeCell ref="D166:I166"/>
-    <mergeCell ref="D164:I164"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D136:I136"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D137:I137"/>
-    <mergeCell ref="J11:K21"/>
-    <mergeCell ref="J22:K32"/>
-    <mergeCell ref="J33:K43"/>
-    <mergeCell ref="J44:K54"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="341">
   <si>
     <t>22 June (Friday)</t>
   </si>
@@ -606,12 +606,6 @@
   </si>
   <si>
     <t>Structural Modulation of 2D Carbon Nitride for Electrochemiluminescent Biosensing</t>
-  </si>
-  <si>
-    <t>Yuh-Shyong Yang</t>
-  </si>
-  <si>
-    <t>Industrial Fabrication of Polysilicon Nanowire Field Effect Transistor for Research and Commercial Application</t>
   </si>
   <si>
     <t>Yang Zhang</t>
@@ -1598,12 +1592,39 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,27 +1637,84 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,7 +1724,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,84 +1754,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1757,15 +1763,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,9 +1789,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2116,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:I43"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165:I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2152,13 +2146,13 @@
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" ht="57.75" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -2179,13 +2173,13 @@
       <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -2196,3269 +2190,3258 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="K4" s="75"/>
+      <c r="B4" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D9" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="22" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G9" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D10" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
+      <c r="G10" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="66"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="46"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="46"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="36"/>
+        <v>190</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="36"/>
+        <v>192</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="36"/>
+        <v>214</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="36"/>
+        <v>196</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="46"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="36"/>
+        <v>194</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="44"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="K22" s="66"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="46"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="46"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="46"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+        <v>329</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="K33" s="66"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" s="51"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="46"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="46"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="46"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="46"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="46"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="46"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="46"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="44"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="K44" s="36"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="46"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="36"/>
+        <v>270</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="46"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36"/>
+      <c r="D46" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="46"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="36"/>
+      <c r="D47" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="46"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="36"/>
+      <c r="D48" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="46"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="46"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="46"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="36"/>
+      <c r="D51" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="46"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="36"/>
+      <c r="D52" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="46"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="36"/>
+      <c r="D53" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A54" s="46"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
+      <c r="D54" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="46"/>
-      <c r="B55" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="K55" s="36"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="46"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="36"/>
+        <v>301</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="46"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="36"/>
+        <v>303</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="46"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="36"/>
+        <v>305</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="46"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>310</v>
-      </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="36"/>
+        <v>307</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="46"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="44"/>
+      <c r="B61" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="46"/>
-      <c r="B61" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="46"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="36"/>
+        <v>312</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="46"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="36"/>
+        <v>314</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="46"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="36"/>
+        <v>225</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A65" s="46"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="36"/>
+        <v>226</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="88" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="K66" s="66"/>
+      <c r="B66" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K66" s="51"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="46"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="36"/>
+        <v>198</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="46"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="36"/>
+        <v>200</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="46"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="37"/>
+    </row>
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A70" s="44"/>
+      <c r="B70" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="36"/>
-    </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="46"/>
-      <c r="B70" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="46"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="46"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="36"/>
+        <v>204</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="46"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="36"/>
+        <v>202</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="46"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="36"/>
+        <v>208</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="37"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A75" s="46"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="44"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="46"/>
-      <c r="B76" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="K76" s="66"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="K76" s="51"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="46"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="36"/>
+      <c r="D77" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="37"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="46"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="37"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="46"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="37"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="46"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="46"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="46"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="37"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="46"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="37"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="46"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="D84" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="46"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="44"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="46"/>
-      <c r="B86" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="K86" s="66"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="K86" s="51"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="46"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="35" t="s">
+      <c r="D87" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="37"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="46"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="37"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="46"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="35" t="s">
+      <c r="D89" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="37"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="46"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="37"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="46"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="37"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="46"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="37"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="46"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="37"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="46"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="37"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A95" s="46"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="34"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="44"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="46"/>
-      <c r="B96" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="K96" s="66"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="K96" s="51"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="46"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="37"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="46"/>
+      <c r="A98" s="44"/>
       <c r="B98" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="37"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="46"/>
+      <c r="A99" s="44"/>
       <c r="B99" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="37"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="46"/>
+      <c r="A100" s="44"/>
       <c r="B100" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="37"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="46"/>
+      <c r="A101" s="44"/>
       <c r="B101" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="37"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="46"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="67"/>
-      <c r="K102" s="36"/>
+      <c r="D102" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="46"/>
+      <c r="A103" s="44"/>
       <c r="B103" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="37"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="46"/>
+      <c r="A104" s="44"/>
       <c r="B104" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="67"/>
-      <c r="K104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="37"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A105" s="46"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="44"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="39"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="46"/>
-      <c r="B106" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="K106" s="66"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K106" s="51"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="46"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="36"/>
+        <v>227</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="37"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="46"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="36"/>
+        <v>228</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="37"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="46"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D109" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="52"/>
+      <c r="K109" s="37"/>
+    </row>
+    <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="44"/>
+      <c r="B110" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="36"/>
-    </row>
-    <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="46"/>
-      <c r="B110" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D110" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="37"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="46"/>
-      <c r="B111" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="36"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="37"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="46"/>
+      <c r="A112" s="44"/>
       <c r="B112" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="36"/>
+        <v>233</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="46"/>
+      <c r="A113" s="44"/>
       <c r="B113" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="D113" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="E113" s="81"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="81"/>
-      <c r="H113" s="81"/>
-      <c r="I113" s="82"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="36"/>
+        <v>324</v>
+      </c>
+      <c r="D113" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="37"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="46"/>
+      <c r="A114" s="44"/>
       <c r="B114" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="67"/>
-      <c r="K114" s="36"/>
+        <v>231</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="37"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="46"/>
+      <c r="A115" s="44"/>
       <c r="B115" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="36"/>
+        <v>234</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="37"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A116" s="46"/>
+      <c r="A116" s="44"/>
       <c r="B116" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D116" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="44"/>
+        <v>232</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="39"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="46"/>
-      <c r="B117" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="87"/>
-      <c r="J117" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="K117" s="66"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="90"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="91"/>
+      <c r="J117" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K117" s="51"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="46"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D118" s="35" t="s">
+      <c r="D118" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="67"/>
-      <c r="K118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="52"/>
+      <c r="K118" s="37"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="46"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="37"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="46"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="35"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="37"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="46"/>
+      <c r="A121" s="44"/>
       <c r="B121" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="37"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="46"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="67"/>
-      <c r="K122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="52"/>
+      <c r="K122" s="37"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="46"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="37"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="46"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D124" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="37"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="46"/>
+      <c r="A125" s="44"/>
       <c r="B125" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D125" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="52"/>
+      <c r="K125" s="37"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="46"/>
+      <c r="A126" s="44"/>
       <c r="B126" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D126" s="35" t="s">
+      <c r="D126" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="52"/>
+      <c r="K126" s="37"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A127" s="46"/>
+      <c r="A127" s="44"/>
       <c r="B127" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D127" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="68"/>
-      <c r="K127" s="44"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="53"/>
+      <c r="K127" s="39"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="46"/>
-      <c r="B128" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="K128" s="66"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="86"/>
+      <c r="J128" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="K128" s="51"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="46"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D129" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E129" s="35"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="52"/>
+      <c r="K129" s="37"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="46"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D130" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="67"/>
-      <c r="K130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="52"/>
+      <c r="K130" s="37"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="46"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="52"/>
+      <c r="K131" s="37"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="46"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="67"/>
-      <c r="K132" s="36"/>
+        <v>336</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="37"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="46"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D133" s="35" t="s">
+      <c r="D133" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="67"/>
-      <c r="K133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="52"/>
+      <c r="K133" s="37"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="46"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="67"/>
-      <c r="K134" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="37"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="46"/>
+      <c r="A135" s="44"/>
       <c r="B135" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D135" s="35" t="s">
+      <c r="D135" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="67"/>
-      <c r="K135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="37"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="46"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="67"/>
-      <c r="K136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="52"/>
+      <c r="K136" s="37"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="46"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="36"/>
+        <v>338</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="52"/>
+      <c r="K137" s="37"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A138" s="46"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="43"/>
-      <c r="K138" s="44"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="38"/>
+      <c r="K138" s="39"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="46"/>
-      <c r="B139" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="84"/>
-      <c r="J139" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="K139" s="66"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="K139" s="51"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="46"/>
+      <c r="A140" s="44"/>
       <c r="B140" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E140" s="35"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="67"/>
-      <c r="K140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="52"/>
+      <c r="K140" s="37"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="46"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D141" s="35" t="s">
+      <c r="D141" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="35"/>
-      <c r="F141" s="35"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="35"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="52"/>
+      <c r="K141" s="37"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="46"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D142" s="35" t="s">
+      <c r="D142" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E142" s="35"/>
-      <c r="F142" s="35"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="67"/>
-      <c r="K142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="52"/>
+      <c r="K142" s="37"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="46"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D143" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="36"/>
+        <v>334</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="37"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="46"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D144" s="35" t="s">
+      <c r="D144" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E144" s="35"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="52"/>
+      <c r="K144" s="37"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="46"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C145" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="35"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="67"/>
-      <c r="K145" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="52"/>
+      <c r="K145" s="37"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="46"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E146" s="35"/>
-      <c r="F146" s="35"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="67"/>
-      <c r="K146" s="36"/>
+      <c r="D146" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="52"/>
+      <c r="K146" s="37"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="46"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C147" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D147" s="35" t="s">
+      <c r="D147" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E147" s="35"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="67"/>
-      <c r="K147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="52"/>
+      <c r="K147" s="37"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="46"/>
+      <c r="A148" s="44"/>
       <c r="B148" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D148" s="35" t="s">
+      <c r="D148" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="67"/>
-      <c r="K148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="37"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A149" s="46"/>
+      <c r="A149" s="44"/>
       <c r="B149" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="44"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="39"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="46"/>
-      <c r="B150" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" s="63"/>
-      <c r="D150" s="63"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="63"/>
-      <c r="G150" s="63"/>
-      <c r="H150" s="63"/>
-      <c r="I150" s="64"/>
-      <c r="J150" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="K150" s="66"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="K150" s="51"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="46"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D151" s="35" t="s">
+      <c r="D151" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E151" s="35"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="67"/>
-      <c r="K151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="37"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="46"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D152" s="35" t="s">
+      <c r="D152" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E152" s="35"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="67"/>
-      <c r="K152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="52"/>
+      <c r="K152" s="37"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="46"/>
+      <c r="A153" s="44"/>
       <c r="B153" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="35" t="s">
+      <c r="D153" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="67"/>
-      <c r="K153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="52"/>
+      <c r="K153" s="37"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="46"/>
+      <c r="A154" s="44"/>
       <c r="B154" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D154" s="35" t="s">
+      <c r="D154" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="67"/>
-      <c r="K154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="52"/>
+      <c r="K154" s="37"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="46"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D155" s="35" t="s">
+      <c r="D155" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E155" s="35"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="67"/>
-      <c r="K155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="37"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="46"/>
+      <c r="A156" s="44"/>
       <c r="B156" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="67"/>
-      <c r="K156" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="37"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="46"/>
+      <c r="A157" s="44"/>
       <c r="B157" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="35" t="s">
+      <c r="D157" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E157" s="35"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="67"/>
-      <c r="K157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="37"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="46"/>
+      <c r="A158" s="44"/>
       <c r="B158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D158" s="35" t="s">
+      <c r="D158" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="67"/>
-      <c r="K158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="37"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="46"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D159" s="35" t="s">
+      <c r="D159" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="67"/>
-      <c r="K159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="52"/>
+      <c r="K159" s="37"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A160" s="46"/>
+      <c r="A160" s="44"/>
       <c r="B160" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C160" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D160" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="E160" s="35"/>
-      <c r="F160" s="35"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="44"/>
+      <c r="D160" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="53"/>
+      <c r="K160" s="39"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="46"/>
-      <c r="B161" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="61"/>
-      <c r="J161" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="K161" s="66"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="70"/>
+      <c r="J161" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K161" s="51"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="46"/>
+      <c r="A162" s="44"/>
       <c r="B162" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C162" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="67"/>
-      <c r="K162" s="36"/>
+      <c r="C162" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="52"/>
+      <c r="K162" s="37"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="46"/>
+      <c r="A163" s="44"/>
       <c r="B163" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D163" s="35" t="s">
+      <c r="D163" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E163" s="35"/>
-      <c r="F163" s="35"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="67"/>
-      <c r="K163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="52"/>
+      <c r="K163" s="37"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="46"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="D164" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="35"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="35"/>
-      <c r="H164" s="35"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="67"/>
-      <c r="K164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="52"/>
+      <c r="K164" s="37"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="46"/>
+      <c r="A165" s="44"/>
       <c r="B165" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E165" s="35"/>
-      <c r="F165" s="35"/>
-      <c r="G165" s="35"/>
-      <c r="H165" s="35"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="67"/>
-      <c r="K165" s="36"/>
+        <v>80</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="52"/>
+      <c r="K165" s="37"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="46"/>
+      <c r="A166" s="44"/>
       <c r="B166" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D166" s="35" t="s">
+      <c r="D166" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E166" s="35"/>
-      <c r="F166" s="35"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="67"/>
-      <c r="K166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="52"/>
+      <c r="K166" s="37"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="46"/>
+      <c r="A167" s="44"/>
       <c r="B167" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="67"/>
-      <c r="K167" s="36"/>
+        <v>273</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="52"/>
+      <c r="K167" s="37"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="46"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E168" s="35"/>
-      <c r="F168" s="35"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="67"/>
-      <c r="K168" s="36"/>
+      <c r="C168" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="52"/>
+      <c r="K168" s="37"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="46"/>
+      <c r="A169" s="44"/>
       <c r="B169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="35" t="s">
+      <c r="D169" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E169" s="35"/>
-      <c r="F169" s="35"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="52"/>
+      <c r="K169" s="37"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="46"/>
+      <c r="A170" s="44"/>
       <c r="B170" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="D170" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="36"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="52"/>
+      <c r="K170" s="37"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A171" s="80"/>
+      <c r="A171" s="45"/>
       <c r="B171" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C171" s="20"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="38"/>
-      <c r="J171" s="68"/>
-      <c r="K171" s="44"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="53"/>
+      <c r="K171" s="39"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B172" s="47" t="s">
+      <c r="A172" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="K172" s="62"/>
+    </row>
+    <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="44"/>
+      <c r="B173" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G173" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H173" s="56"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="64"/>
+    </row>
+    <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="44"/>
+      <c r="B174" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G174" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H174" s="56"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="63"/>
+      <c r="K174" s="64"/>
+    </row>
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="44"/>
+      <c r="B175" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C175" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D175" s="56"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="56"/>
+      <c r="G175" s="56"/>
+      <c r="H175" s="56"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="63"/>
+      <c r="K175" s="64"/>
+    </row>
+    <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="44"/>
+      <c r="B176" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E176" s="36"/>
+      <c r="F176" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G176" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H176" s="56"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="64"/>
+    </row>
+    <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="44"/>
+      <c r="B177" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D177" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E177" s="36"/>
+      <c r="F177" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G177" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H177" s="56"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="63"/>
+      <c r="K177" s="64"/>
+    </row>
+    <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A178" s="45"/>
+      <c r="B178" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C172" s="47"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="47"/>
-      <c r="I172" s="47"/>
-      <c r="J172" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="K172" s="75"/>
-    </row>
-    <row r="173" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="46"/>
-      <c r="B173" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E173" s="35"/>
-      <c r="F173" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G173" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H173" s="41"/>
-      <c r="I173" s="42"/>
-      <c r="J173" s="76"/>
-      <c r="K173" s="77"/>
-    </row>
-    <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="46"/>
-      <c r="B174" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="E174" s="35"/>
-      <c r="F174" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G174" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H174" s="41"/>
-      <c r="I174" s="42"/>
-      <c r="J174" s="76"/>
-      <c r="K174" s="77"/>
-    </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="46"/>
-      <c r="B175" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="C175" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="D175" s="41"/>
-      <c r="E175" s="41"/>
-      <c r="F175" s="41"/>
-      <c r="G175" s="41"/>
-      <c r="H175" s="41"/>
-      <c r="I175" s="42"/>
-      <c r="J175" s="76"/>
-      <c r="K175" s="77"/>
-    </row>
-    <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="46"/>
-      <c r="B176" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E176" s="35"/>
-      <c r="F176" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G176" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H176" s="41"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="76"/>
-      <c r="K176" s="77"/>
-    </row>
-    <row r="177" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="46"/>
-      <c r="B177" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E177" s="35"/>
-      <c r="F177" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G177" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="H177" s="41"/>
-      <c r="I177" s="42"/>
-      <c r="J177" s="76"/>
-      <c r="K177" s="77"/>
-    </row>
-    <row r="178" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A178" s="80"/>
-      <c r="B178" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="H178" s="69"/>
-      <c r="I178" s="70"/>
-      <c r="J178" s="78"/>
-      <c r="K178" s="79"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="55"/>
+      <c r="J178" s="65"/>
+      <c r="K178" s="66"/>
     </row>
     <row r="179" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="180" spans="1:11" ht="18.75" customHeight="1"/>
@@ -5468,7 +5451,7 @@
     <row r="184" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="185" spans="1:11" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="204">
+  <mergeCells count="203">
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -5482,12 +5465,14 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C7:I7"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="C149:I149"/>
     <mergeCell ref="J11:K21"/>
     <mergeCell ref="J22:K32"/>
     <mergeCell ref="J33:K43"/>
     <mergeCell ref="J44:K54"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D18:I18"/>
@@ -5504,18 +5489,6 @@
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="D35:I35"/>
     <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D136:I136"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D137:I137"/>
-    <mergeCell ref="C149:I149"/>
     <mergeCell ref="J96:K105"/>
     <mergeCell ref="J86:K95"/>
     <mergeCell ref="J76:K85"/>
@@ -5534,13 +5507,15 @@
     <mergeCell ref="D72:I72"/>
     <mergeCell ref="D73:I73"/>
     <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="D77:I77"/>
     <mergeCell ref="D78:I78"/>
     <mergeCell ref="D79:I79"/>
     <mergeCell ref="D85:I85"/>
     <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="D82:I82"/>
     <mergeCell ref="D169:I169"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="B96:I96"/>
@@ -5553,6 +5528,18 @@
     <mergeCell ref="D131:I131"/>
     <mergeCell ref="D132:I132"/>
     <mergeCell ref="B117:I117"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="D136:I136"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="A4:A65"/>
+    <mergeCell ref="B55:I55"/>
     <mergeCell ref="D49:I49"/>
     <mergeCell ref="D119:I119"/>
     <mergeCell ref="D120:I120"/>
@@ -5564,35 +5551,22 @@
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="B66:I66"/>
     <mergeCell ref="D84:I84"/>
-    <mergeCell ref="A66:A171"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D168:I168"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D64:I64"/>
     <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D157:I157"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="B139:I139"/>
-    <mergeCell ref="B150:I150"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B128:I128"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D126:I126"/>
     <mergeCell ref="J172:K178"/>
     <mergeCell ref="J139:K149"/>
     <mergeCell ref="J150:K160"/>
     <mergeCell ref="D160:I160"/>
     <mergeCell ref="J161:K171"/>
-    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="D168:I168"/>
     <mergeCell ref="D142:I142"/>
     <mergeCell ref="D146:I146"/>
     <mergeCell ref="D140:I140"/>
@@ -5601,6 +5575,14 @@
     <mergeCell ref="D163:I163"/>
     <mergeCell ref="D166:I166"/>
     <mergeCell ref="D164:I164"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="B161:I161"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D157:I157"/>
+    <mergeCell ref="B139:I139"/>
+    <mergeCell ref="B150:I150"/>
     <mergeCell ref="J55:K65"/>
     <mergeCell ref="J117:K127"/>
     <mergeCell ref="J128:K138"/>
@@ -5625,27 +5607,6 @@
     <mergeCell ref="D170:I170"/>
     <mergeCell ref="D107:I107"/>
     <mergeCell ref="D108:I108"/>
-    <mergeCell ref="A4:A65"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B128:I128"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="B161:I161"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D102:I102"/>
     <mergeCell ref="D109:I109"/>
     <mergeCell ref="D112:I112"/>
     <mergeCell ref="A172:A178"/>
@@ -5656,16 +5617,31 @@
     <mergeCell ref="D171:I171"/>
     <mergeCell ref="C167:I167"/>
     <mergeCell ref="C138:I138"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="A66:A171"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D63:I63"/>
     <mergeCell ref="D70:I70"/>
     <mergeCell ref="C71:I71"/>
     <mergeCell ref="C81:I81"/>
     <mergeCell ref="C91:I91"/>
     <mergeCell ref="D65:I65"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="D88:I88"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D48:I48"/>
@@ -5673,6 +5649,12 @@
     <mergeCell ref="D53:I53"/>
     <mergeCell ref="D54:I54"/>
     <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D23:I23"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
   <si>
     <t>22 June (Friday)</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>Towards p-Type Doping for ZnO Light-Emitting Devices</t>
+  </si>
+  <si>
+    <t>Yang Bin</t>
+  </si>
+  <si>
+    <t>Decentralized Model Predictive Control for Polymer Electrolyte Membrane Fuel Cell System</t>
   </si>
 </sst>
 </file>
@@ -1211,18 +1217,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1347,12 +1353,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,9 +1428,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,12 +1467,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,13 +1479,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,30 +1560,30 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,24 +1593,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1600,10 +1629,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,7 +1989,7 @@
   <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:I77"/>
+      <selection activeCell="C165" sqref="C165:I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -1952,3265 +2014,3269 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="36" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="42" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="K20" s="37"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="39"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="39"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="39"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="39"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="39"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="39"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="39"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="39"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="39"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="39"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="36" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="37"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="70"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="39"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="27" t="s">
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="K42" s="39"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="39"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="70"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="39"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="70"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="39"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="39"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="70"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="39"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="70"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="39"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="70"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="39"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="39"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="65"/>
+      <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="39"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A52" s="70"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="41"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="70"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="27" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="K53" s="39"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="70"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="39"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="70"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="39"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="70"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="39"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="70"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="39"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="70"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="65"/>
+      <c r="B58" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="39"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="36"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="70"/>
-      <c r="B59" s="79" t="s">
+      <c r="A59" s="65"/>
+      <c r="B59" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="39"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="36"/>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="70"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="39"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="70"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="39"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="70"/>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="39"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A63" s="70"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="36"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="36" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="K64" s="37"/>
+      <c r="K64" s="34"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A65" s="70"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="39"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="36"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="70"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="39"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="70"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="70"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="13" t="s">
         <v>258</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="39"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="70"/>
-      <c r="B69" s="14" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="39"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="70"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="65"/>
+      <c r="B70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="39"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="36"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="70"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="65"/>
+      <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="39"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A73" s="70"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="41"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="70"/>
-      <c r="B74" s="61" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="36" t="s">
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="K74" s="37"/>
+      <c r="K74" s="34"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="39"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="70"/>
-      <c r="B76" s="12" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="39"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="36"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="70"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="65"/>
+      <c r="B77" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="39"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="70"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="65"/>
+      <c r="B78" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="39"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="70"/>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="65"/>
+      <c r="B79" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="39"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="70"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="65"/>
+      <c r="B80" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="39"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="70"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="39"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="36"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="70"/>
-      <c r="B82" s="12" t="s">
+      <c r="A82" s="65"/>
+      <c r="B82" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="39"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A83" s="70"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="41"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="70"/>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="36" t="s">
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="K84" s="37"/>
+      <c r="K84" s="34"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="70"/>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="65"/>
+      <c r="B85" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="70"/>
-      <c r="B86" s="12" t="s">
+      <c r="A86" s="65"/>
+      <c r="B86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="39"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="70"/>
-      <c r="B87" s="12" t="s">
+      <c r="A87" s="65"/>
+      <c r="B87" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="39"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="70"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="65"/>
+      <c r="B88" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="39"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="70"/>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="39"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="70"/>
-      <c r="B90" s="12" t="s">
+      <c r="A90" s="65"/>
+      <c r="B90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="39"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="70"/>
-      <c r="B91" s="12" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="39"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="70"/>
-      <c r="B92" s="12" t="s">
+      <c r="A92" s="65"/>
+      <c r="B92" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="39"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A93" s="70"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="41"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="70"/>
-      <c r="B94" s="58" t="s">
+      <c r="A94" s="65"/>
+      <c r="B94" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="36" t="s">
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="K94" s="37"/>
+      <c r="K94" s="34"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="70"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="39"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="70"/>
-      <c r="B96" s="12" t="s">
+      <c r="A96" s="65"/>
+      <c r="B96" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="39"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="70"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="65"/>
+      <c r="B97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="39"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="70"/>
-      <c r="B98" s="12" t="s">
+      <c r="A98" s="65"/>
+      <c r="B98" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="39"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="70"/>
-      <c r="B99" s="14" t="s">
+      <c r="A99" s="65"/>
+      <c r="B99" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="39"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="65"/>
+      <c r="B100" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="27" t="s">
+      <c r="D100" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="39"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="70"/>
-      <c r="B101" s="12" t="s">
+      <c r="A101" s="65"/>
+      <c r="B101" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="39"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="70"/>
-      <c r="B102" s="12" t="s">
+      <c r="A102" s="65"/>
+      <c r="B102" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="39"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A103" s="70"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="41"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="38"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="70"/>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="65"/>
+      <c r="B104" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="36" t="s">
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="K104" s="37"/>
+      <c r="K104" s="34"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="70"/>
-      <c r="B105" s="17" t="s">
+      <c r="A105" s="65"/>
+      <c r="B105" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D105" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="39"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="70"/>
-      <c r="B106" s="17" t="s">
+      <c r="A106" s="65"/>
+      <c r="B106" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="39"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="70"/>
-      <c r="B107" s="17" t="s">
+      <c r="A107" s="65"/>
+      <c r="B107" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="39"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="36"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="70"/>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="65"/>
+      <c r="B108" s="16" t="s">
         <v>305</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="39"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="70"/>
-      <c r="B109" s="79" t="s">
+      <c r="A109" s="65"/>
+      <c r="B109" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="39"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="70"/>
-      <c r="B110" s="17" t="s">
+      <c r="A110" s="65"/>
+      <c r="B110" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D110" s="27" t="s">
+      <c r="D110" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="39"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="70"/>
-      <c r="B111" s="20" t="s">
+      <c r="A111" s="65"/>
+      <c r="B111" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D111" s="56" t="s">
+      <c r="D111" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="39"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="70"/>
-      <c r="B112" s="17" t="s">
+      <c r="A112" s="65"/>
+      <c r="B112" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="39"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="70"/>
-      <c r="B113" s="17" t="s">
+      <c r="A113" s="65"/>
+      <c r="B113" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D113" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="39"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A114" s="70"/>
-      <c r="B114" s="18" t="s">
+      <c r="A114" s="65"/>
+      <c r="B114" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="41"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="38"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="70"/>
-      <c r="B115" s="64" t="s">
+      <c r="A115" s="65"/>
+      <c r="B115" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="36" t="s">
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="K115" s="37"/>
+      <c r="K115" s="34"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="70"/>
-      <c r="B116" s="12" t="s">
+      <c r="A116" s="65"/>
+      <c r="B116" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="D116" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="39"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="70"/>
-      <c r="B117" s="12" t="s">
+      <c r="A117" s="65"/>
+      <c r="B117" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D117" s="27" t="s">
+      <c r="D117" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="39"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="70"/>
-      <c r="B118" s="12" t="s">
+      <c r="A118" s="65"/>
+      <c r="B118" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="39"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="70"/>
-      <c r="B119" s="12" t="s">
+      <c r="A119" s="65"/>
+      <c r="B119" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="39"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="70"/>
-      <c r="B120" s="12" t="s">
+      <c r="A120" s="65"/>
+      <c r="B120" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="39"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="70"/>
-      <c r="B121" s="14" t="s">
+      <c r="A121" s="65"/>
+      <c r="B121" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="39"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="70"/>
-      <c r="B122" s="12" t="s">
+      <c r="A122" s="65"/>
+      <c r="B122" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="39"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="70"/>
-      <c r="B123" s="12" t="s">
+      <c r="A123" s="65"/>
+      <c r="B123" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="27" t="s">
+      <c r="D123" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="39"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="70"/>
-      <c r="B124" s="12" t="s">
+      <c r="A124" s="65"/>
+      <c r="B124" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="27" t="s">
+      <c r="D124" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="39"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="70"/>
-      <c r="B125" s="12" t="s">
+      <c r="A125" s="65"/>
+      <c r="B125" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D125" s="27" t="s">
+      <c r="D125" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="41"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="38"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="70"/>
-      <c r="B126" s="44" t="s">
+      <c r="A126" s="65"/>
+      <c r="B126" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="36" t="s">
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="K126" s="37"/>
+      <c r="K126" s="34"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="70"/>
-      <c r="B127" s="12" t="s">
+      <c r="A127" s="65"/>
+      <c r="B127" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="39"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="70"/>
-      <c r="B128" s="12" t="s">
+      <c r="A128" s="65"/>
+      <c r="B128" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="39"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="70"/>
-      <c r="B129" s="12" t="s">
+      <c r="A129" s="65"/>
+      <c r="B129" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="39"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="70"/>
-      <c r="B130" s="12" t="s">
+      <c r="A130" s="65"/>
+      <c r="B130" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="39"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="70"/>
-      <c r="B131" s="12" t="s">
+      <c r="A131" s="65"/>
+      <c r="B131" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="39"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="70"/>
-      <c r="B132" s="14" t="s">
+      <c r="A132" s="65"/>
+      <c r="B132" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="39"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="70"/>
-      <c r="B133" s="12" t="s">
+      <c r="A133" s="65"/>
+      <c r="B133" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="39"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="70"/>
-      <c r="B134" s="12" t="s">
+      <c r="A134" s="65"/>
+      <c r="B134" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="39"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="39"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="70"/>
-      <c r="B135" s="12" t="s">
+      <c r="A135" s="65"/>
+      <c r="B135" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="39"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="39"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A136" s="70"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="68"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="41"/>
+      <c r="C136" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="40"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="38"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="70"/>
-      <c r="B137" s="50" t="s">
+      <c r="A137" s="65"/>
+      <c r="B137" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="75"/>
-      <c r="F137" s="75"/>
-      <c r="G137" s="75"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="76"/>
-      <c r="J137" s="36" t="s">
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="69"/>
+      <c r="J137" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="K137" s="37"/>
+      <c r="K137" s="34"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="70"/>
-      <c r="B138" s="12" t="s">
+      <c r="A138" s="65"/>
+      <c r="B138" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="39"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="39"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="70"/>
-      <c r="B139" s="12" t="s">
+      <c r="A139" s="65"/>
+      <c r="B139" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="D139" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="39"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="70"/>
-      <c r="B140" s="12" t="s">
+      <c r="A140" s="65"/>
+      <c r="B140" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="D140" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="39"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="70"/>
-      <c r="B141" s="12" t="s">
+      <c r="A141" s="65"/>
+      <c r="B141" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="39"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="39"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="70"/>
-      <c r="B142" s="12" t="s">
+      <c r="A142" s="65"/>
+      <c r="B142" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="39"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="70"/>
-      <c r="B143" s="14" t="s">
+      <c r="A143" s="65"/>
+      <c r="B143" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="39"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="39"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="70"/>
-      <c r="B144" s="12" t="s">
+      <c r="A144" s="65"/>
+      <c r="B144" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="39"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="70"/>
-      <c r="B145" s="12" t="s">
+      <c r="A145" s="65"/>
+      <c r="B145" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C145" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="39"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="70"/>
-      <c r="B146" s="12" t="s">
+      <c r="A146" s="65"/>
+      <c r="B146" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="D146" s="27" t="s">
+      <c r="D146" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="39"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="39"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="78"/>
+      <c r="I146" s="79"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="36"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A147" s="70"/>
-      <c r="B147" s="12" t="s">
+      <c r="A147" s="65"/>
+      <c r="B147" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
-      <c r="I147" s="68"/>
-      <c r="J147" s="40"/>
-      <c r="K147" s="41"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="83"/>
+      <c r="I147" s="84"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="38"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="70"/>
-      <c r="B148" s="58" t="s">
+      <c r="A148" s="65"/>
+      <c r="B148" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="36" t="s">
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="K148" s="37"/>
+      <c r="K148" s="34"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="70"/>
-      <c r="B149" s="12" t="s">
+      <c r="A149" s="65"/>
+      <c r="B149" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D149" s="27" t="s">
+      <c r="D149" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="39"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="39"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="36"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="70"/>
-      <c r="B150" s="12" t="s">
+      <c r="A150" s="65"/>
+      <c r="B150" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D150" s="27" t="s">
+      <c r="D150" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="39"/>
-      <c r="J150" s="38"/>
-      <c r="K150" s="39"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="35"/>
+      <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="70"/>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="65"/>
+      <c r="B151" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D151" s="27" t="s">
+      <c r="D151" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="39"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="24"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="70"/>
-      <c r="B152" s="12" t="s">
+      <c r="A152" s="65"/>
+      <c r="B152" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D152" s="27" t="s">
+      <c r="D152" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="27"/>
-      <c r="I152" s="39"/>
-      <c r="J152" s="38"/>
-      <c r="K152" s="39"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="24"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="70"/>
-      <c r="B153" s="12" t="s">
+      <c r="A153" s="65"/>
+      <c r="B153" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="39"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="39"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="70"/>
-      <c r="B154" s="14" t="s">
+      <c r="A154" s="65"/>
+      <c r="B154" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="39"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="70"/>
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="65"/>
+      <c r="B155" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="39"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="39"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="70"/>
-      <c r="B156" s="12" t="s">
+      <c r="A156" s="65"/>
+      <c r="B156" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D156" s="27" t="s">
+      <c r="D156" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="39"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="39"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="70"/>
-      <c r="B157" s="12" t="s">
+      <c r="A157" s="65"/>
+      <c r="B157" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="27" t="s">
+      <c r="D157" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="39"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="39"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="36"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A158" s="70"/>
+      <c r="A158" s="65"/>
       <c r="B158" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D158" s="27" t="s">
+      <c r="D158" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="39"/>
-      <c r="J158" s="40"/>
-      <c r="K158" s="41"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="38"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="70"/>
-      <c r="B159" s="61" t="s">
+      <c r="A159" s="65"/>
+      <c r="B159" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="C159" s="62"/>
-      <c r="D159" s="62"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="62"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="63"/>
-      <c r="J159" s="36" t="s">
+      <c r="C159" s="54"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="54"/>
+      <c r="I159" s="55"/>
+      <c r="J159" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="K159" s="37"/>
+      <c r="K159" s="34"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="70"/>
-      <c r="B160" s="12" t="s">
+      <c r="A160" s="65"/>
+      <c r="B160" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D160" s="27" t="s">
+      <c r="D160" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="39"/>
-      <c r="J160" s="38"/>
-      <c r="K160" s="39"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="70"/>
-      <c r="B161" s="12" t="s">
+      <c r="A161" s="65"/>
+      <c r="B161" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="27" t="s">
+      <c r="D161" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="39"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="39"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="35"/>
+      <c r="K161" s="36"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="70"/>
-      <c r="B162" s="12" t="s">
+      <c r="A162" s="65"/>
+      <c r="B162" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="39"/>
-      <c r="J162" s="38"/>
-      <c r="K162" s="39"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="35"/>
+      <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="70"/>
-      <c r="B163" s="12" t="s">
+      <c r="A163" s="65"/>
+      <c r="B163" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D163" s="27" t="s">
+      <c r="D163" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="39"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="39"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="35"/>
+      <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="70"/>
-      <c r="B164" s="12" t="s">
+      <c r="A164" s="65"/>
+      <c r="B164" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="27" t="s">
+      <c r="D164" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="38"/>
-      <c r="K164" s="39"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="35"/>
+      <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="70"/>
-      <c r="B165" s="14" t="s">
+      <c r="A165" s="65"/>
+      <c r="B165" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="39"/>
-      <c r="J165" s="38"/>
-      <c r="K165" s="39"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="35"/>
+      <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="70"/>
-      <c r="B166" s="12" t="s">
+      <c r="A166" s="65"/>
+      <c r="B166" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D166" s="27" t="s">
+      <c r="D166" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="39"/>
-      <c r="J166" s="38"/>
-      <c r="K166" s="39"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="70"/>
-      <c r="B167" s="12" t="s">
+      <c r="A167" s="65"/>
+      <c r="B167" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D167" s="27" t="s">
+      <c r="D167" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="39"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="39"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="70"/>
-      <c r="B168" s="12" t="s">
+      <c r="A168" s="65"/>
+      <c r="B168" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D168" s="27" t="s">
+      <c r="D168" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="39"/>
-      <c r="J168" s="38"/>
-      <c r="K168" s="39"/>
+      <c r="E168" s="78"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="78"/>
+      <c r="H168" s="78"/>
+      <c r="I168" s="79"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A169" s="82"/>
+      <c r="A169" s="75"/>
       <c r="B169" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="84"/>
-      <c r="J169" s="40"/>
-      <c r="K169" s="41"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="87"/>
+      <c r="E169" s="87"/>
+      <c r="F169" s="87"/>
+      <c r="G169" s="87"/>
+      <c r="H169" s="87"/>
+      <c r="I169" s="88"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="38"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="69" t="s">
+      <c r="A170" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
-      <c r="I170" s="30"/>
-      <c r="J170" s="32" t="s">
+      <c r="C170" s="85"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
+      <c r="I170" s="85"/>
+      <c r="J170" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K170" s="33"/>
+      <c r="K170" s="30"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="70"/>
-      <c r="B171" s="12" t="s">
+      <c r="A171" s="65"/>
+      <c r="B171" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D171" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="E171" s="27"/>
-      <c r="F171" s="11" t="s">
+      <c r="E171" s="24"/>
+      <c r="F171" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G171" s="25" t="s">
+      <c r="G171" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="25"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="35"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="31"/>
+      <c r="K171" s="32"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="70"/>
-      <c r="B172" s="12" t="s">
+      <c r="A172" s="65"/>
+      <c r="B172" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D172" s="27" t="s">
+      <c r="D172" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E172" s="27"/>
-      <c r="F172" s="11" t="s">
+      <c r="E172" s="24"/>
+      <c r="F172" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G172" s="25" t="s">
+      <c r="G172" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H172" s="25"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="35"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="31"/>
+      <c r="K172" s="32"/>
     </row>
     <row r="173" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="70"/>
-      <c r="B173" s="14" t="s">
+      <c r="A173" s="65"/>
+      <c r="B173" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="25"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="35"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="32"/>
     </row>
     <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="70"/>
-      <c r="B174" s="12" t="s">
+      <c r="A174" s="65"/>
+      <c r="B174" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E174" s="27"/>
-      <c r="F174" s="11" t="s">
+      <c r="E174" s="24"/>
+      <c r="F174" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G174" s="25" t="s">
+      <c r="G174" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H174" s="25"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="35"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="31"/>
+      <c r="K174" s="32"/>
     </row>
     <row r="175" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="70"/>
-      <c r="B175" s="12" t="s">
+      <c r="A175" s="65"/>
+      <c r="B175" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D175" s="27" t="s">
+      <c r="D175" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="E175" s="27"/>
-      <c r="F175" s="11" t="s">
+      <c r="E175" s="24"/>
+      <c r="F175" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G175" s="25" t="s">
+      <c r="G175" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H175" s="25"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="35"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="31"/>
+      <c r="K175" s="32"/>
     </row>
     <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A176" s="82"/>
+      <c r="A176" s="75"/>
       <c r="B176" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="77" t="s">
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="H176" s="77"/>
-      <c r="I176" s="78"/>
-      <c r="J176" s="73"/>
-      <c r="K176" s="74"/>
+      <c r="H176" s="70"/>
+      <c r="I176" s="71"/>
+      <c r="J176" s="66"/>
+      <c r="K176" s="67"/>
     </row>
     <row r="177" ht="18.75" customHeight="1"/>
     <row r="178" ht="18.75" customHeight="1"/>
@@ -5221,9 +5287,6 @@
     <row r="183" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D50:I50"/>
     <mergeCell ref="D51:I51"/>
     <mergeCell ref="D52:I52"/>
     <mergeCell ref="D39:I39"/>
@@ -5240,7 +5303,6 @@
     <mergeCell ref="D49:I49"/>
     <mergeCell ref="D169:I169"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C136:I136"/>
     <mergeCell ref="A64:A169"/>
     <mergeCell ref="D65:I65"/>
     <mergeCell ref="D66:I66"/>
@@ -5257,6 +5319,7 @@
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="C69:I69"/>
+    <mergeCell ref="D60:I60"/>
     <mergeCell ref="J53:K63"/>
     <mergeCell ref="J115:K125"/>
     <mergeCell ref="J126:K136"/>
@@ -5342,6 +5405,7 @@
     <mergeCell ref="D134:I134"/>
     <mergeCell ref="D131:I131"/>
     <mergeCell ref="C147:I147"/>
+    <mergeCell ref="D136:I136"/>
     <mergeCell ref="D157:I157"/>
     <mergeCell ref="D111:I111"/>
     <mergeCell ref="D112:I112"/>
@@ -5410,6 +5474,8 @@
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D50:I50"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>

--- a/assets/download/rundown.xlsx
+++ b/assets/download/rundown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="329">
   <si>
     <t>22 June (Friday)</t>
   </si>
@@ -779,13 +779,7 @@
     <t>Chen-Ho Tung</t>
   </si>
   <si>
-    <t>Yuliang Li</t>
-  </si>
-  <si>
     <t>Zikang Tang</t>
-  </si>
-  <si>
-    <t>2D Graphdiyne: From Fundamentals to Applications</t>
   </si>
   <si>
     <t>Photocatalytic Splitting of Water Based on Semiconducting Quantum Dots</t>
@@ -888,9 +882,6 @@
     <t>11:15-11:45</t>
   </si>
   <si>
-    <t>11:50-12:00</t>
-  </si>
-  <si>
     <t>Thuc Hue Ly</t>
   </si>
   <si>
@@ -1091,6 +1082,15 @@
   </si>
   <si>
     <t>Decentralized Model Predictive Control for Polymer Electrolyte Membrane Fuel Cell System</t>
+  </si>
+  <si>
+    <t>11:15-11:30</t>
+  </si>
+  <si>
+    <t>MC: Yuliang Li</t>
+  </si>
+  <si>
+    <t>MC: Shuit-Tong Lee</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,84 +1437,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,6 +1539,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,18 +1614,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,43 +1665,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,10 +1992,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165:I165"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -2014,3279 +2020,3256 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="65"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="65"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+        <v>269</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K9" s="34"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="65"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="65"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="65"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="K20" s="34"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="36"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="36"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="36"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="36"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="36"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="36"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="36"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="65"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="36"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="65"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="36"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="36"/>
+        <v>310</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K31" s="34"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="65"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="36"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="65"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="36"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="65"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="36"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="65"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="36"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="65"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="65"/>
-      <c r="B37" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="65"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="65"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="65"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="65"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="65"/>
-      <c r="B42" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="K42" s="36"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="65"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="36"/>
+        <v>253</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="65"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="36"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="65"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="36"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="41"/>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="65"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="36"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="41"/>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="65"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="C47" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="36"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="65"/>
-      <c r="B48" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="36"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="65"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="36"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="65"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="36"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="65"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="36"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A52" s="65"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="43"/>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="65"/>
-      <c r="B53" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K53" s="36"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="65"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="74"/>
+      <c r="B54" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="41"/>
+    </row>
+    <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A55" s="74"/>
+      <c r="B55" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="41"/>
+    </row>
+    <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A56" s="74"/>
+      <c r="B56" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="36"/>
-    </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="65"/>
-      <c r="B55" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="D56" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="41"/>
+    </row>
+    <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A57" s="74"/>
+      <c r="B57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="36"/>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="D57" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="41"/>
+    </row>
+    <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A58" s="74"/>
+      <c r="B58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="36"/>
-    </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="18" t="s">
+      <c r="D58" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="41"/>
+    </row>
+    <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A59" s="74"/>
+      <c r="B59" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="65"/>
-      <c r="B58" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="41"/>
+    </row>
+    <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A60" s="74"/>
+      <c r="B60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D60" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="36"/>
-    </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="72" t="s">
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="41"/>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A61" s="74"/>
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="65"/>
-      <c r="B60" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="D61" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="65"/>
-      <c r="B61" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="36"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="65"/>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="74"/>
+      <c r="B62" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="36"/>
+      <c r="D62" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="41"/>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A63" s="65"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="36"/>
+      <c r="D63" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K64" s="34"/>
+      <c r="B64" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A65" s="65"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="36"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="65"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="36"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="65"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="36"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="65"/>
-      <c r="B68" s="13" t="s">
-        <v>258</v>
+      <c r="A68" s="74"/>
+      <c r="B68" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="36"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="65"/>
-      <c r="B69" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="36"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="65"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="36"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="41"/>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="65"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="36"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="65"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="77" t="s">
+      <c r="C72" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="78" t="s">
+      <c r="D72" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="36"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A73" s="65"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="38"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="43"/>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="65"/>
-      <c r="B74" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="K74" s="34"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="65"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="36"/>
+      <c r="D75" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="65"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="36"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="41"/>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="65"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="36"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="41"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="65"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="36"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="36"/>
+      <c r="A79" s="74"/>
+      <c r="B79" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="65"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="36"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="65"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="36"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="65"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="36"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="41"/>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A83" s="65"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="38"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K84" s="34"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="65"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="36"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="65"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="36"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="41"/>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="65"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="36"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="65"/>
+      <c r="A88" s="74"/>
       <c r="B88" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="36"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="41"/>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="65"/>
-      <c r="B89" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="36"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="41"/>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="65"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="36"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="65"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="36"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="65"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="77" t="s">
+      <c r="C92" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D92" s="78" t="s">
+      <c r="D92" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="78"/>
-      <c r="I92" s="79"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="36"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="41"/>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A93" s="65"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="38"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="43"/>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K94" s="34"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="65"/>
+      <c r="A95" s="74"/>
       <c r="B95" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D95" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="36"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="41"/>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="65"/>
+      <c r="A96" s="74"/>
       <c r="B96" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="36"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="65"/>
+      <c r="A97" s="74"/>
       <c r="B97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="36"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="65"/>
+      <c r="A98" s="74"/>
       <c r="B98" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="36"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="41"/>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="65"/>
-      <c r="B99" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="36"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="41"/>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="65"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="36"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="65"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="36"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="41"/>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="65"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="36"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="41"/>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A103" s="65"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="40" t="s">
+      <c r="D103" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="38"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="43"/>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="65"/>
-      <c r="B104" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="51"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="K104" s="34"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K104" s="39"/>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="65"/>
-      <c r="B105" s="16" t="s">
+      <c r="A105" s="74"/>
+      <c r="B105" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="36"/>
+      <c r="D105" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="41"/>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="65"/>
-      <c r="B106" s="16" t="s">
+      <c r="A106" s="74"/>
+      <c r="B106" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="36"/>
+      <c r="D106" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="41"/>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="65"/>
-      <c r="B107" s="16" t="s">
+      <c r="A107" s="74"/>
+      <c r="B107" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="36"/>
+      <c r="D107" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="41"/>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="65"/>
-      <c r="B108" s="16" t="s">
-        <v>305</v>
+      <c r="A108" s="74"/>
+      <c r="B108" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="36"/>
+      <c r="D108" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="41"/>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="65"/>
-      <c r="B109" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="73"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="73"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="36"/>
+      <c r="A109" s="74"/>
+      <c r="B109" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="86"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="41"/>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="65"/>
-      <c r="B110" s="16" t="s">
+      <c r="A110" s="74"/>
+      <c r="B110" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="36"/>
+      <c r="D110" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="41"/>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="65"/>
-      <c r="B111" s="19" t="s">
+      <c r="A111" s="74"/>
+      <c r="B111" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D111" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="36"/>
+      <c r="C111" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="41"/>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="65"/>
-      <c r="B112" s="16" t="s">
+      <c r="A112" s="74"/>
+      <c r="B112" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="36"/>
+      <c r="D112" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="41"/>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="65"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="74"/>
+      <c r="B113" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="36"/>
+      <c r="D113" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="41"/>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A114" s="65"/>
-      <c r="B114" s="17" t="s">
+      <c r="A114" s="74"/>
+      <c r="B114" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D114" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="38"/>
+      <c r="D114" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="43"/>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="65"/>
-      <c r="B115" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K115" s="34"/>
+      <c r="A115" s="74"/>
+      <c r="B115" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K115" s="39"/>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="65"/>
+      <c r="A116" s="74"/>
       <c r="B116" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="36"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="41"/>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="65"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D117" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D117" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="36"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="41"/>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="65"/>
+      <c r="A118" s="74"/>
       <c r="B118" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="36"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="41"/>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="65"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="36"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="41"/>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="65"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="36"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="41"/>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="65"/>
-      <c r="B121" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="36"/>
+      <c r="A121" s="74"/>
+      <c r="B121" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="41"/>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="65"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="36"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="41"/>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="65"/>
+      <c r="A123" s="74"/>
       <c r="B123" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="36"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="41"/>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="65"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="36"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="41"/>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="65"/>
+      <c r="A125" s="74"/>
       <c r="B125" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D125" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="38"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="43"/>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="65"/>
-      <c r="B126" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="K126" s="34"/>
+      <c r="A126" s="74"/>
+      <c r="B126" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="49"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K126" s="39"/>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="65"/>
+      <c r="A127" s="74"/>
       <c r="B127" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="36"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="41"/>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="65"/>
+      <c r="A128" s="74"/>
       <c r="B128" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="D128" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="36"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="41"/>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="65"/>
+      <c r="A129" s="74"/>
       <c r="B129" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="36"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="41"/>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="65"/>
+      <c r="A130" s="74"/>
       <c r="B130" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="36"/>
+        <v>317</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="65"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="36"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="41"/>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="65"/>
-      <c r="B132" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="36"/>
+      <c r="A132" s="74"/>
+      <c r="B132" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="41"/>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="65"/>
+      <c r="A133" s="74"/>
       <c r="B133" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="36"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="65"/>
+      <c r="A134" s="74"/>
       <c r="B134" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="36"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="65"/>
+      <c r="A135" s="74"/>
       <c r="B135" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="36"/>
+        <v>319</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A136" s="65"/>
+      <c r="A136" s="74"/>
       <c r="B136" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D136" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="40"/>
-      <c r="K136" s="38"/>
+        <v>324</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="43"/>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="65"/>
-      <c r="B137" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="69"/>
-      <c r="J137" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K137" s="34"/>
+      <c r="A137" s="74"/>
+      <c r="B137" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="80"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="80"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K137" s="39"/>
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="65"/>
+      <c r="A138" s="74"/>
       <c r="B138" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="36"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="41"/>
     </row>
     <row r="139" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="65"/>
+      <c r="A139" s="74"/>
       <c r="B139" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="36"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="41"/>
     </row>
     <row r="140" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="65"/>
+      <c r="A140" s="74"/>
       <c r="B140" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="36"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="41"/>
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="65"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="36"/>
+        <v>315</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="41"/>
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="65"/>
+      <c r="A142" s="74"/>
       <c r="B142" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="36"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="41"/>
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="65"/>
-      <c r="B143" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="36"/>
+      <c r="A143" s="74"/>
+      <c r="B143" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="41"/>
     </row>
     <row r="144" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="65"/>
+      <c r="A144" s="74"/>
       <c r="B144" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="36"/>
+      <c r="D144" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="41"/>
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="65"/>
+      <c r="A145" s="74"/>
       <c r="B145" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C145" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="36"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="41"/>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="65"/>
+      <c r="A146" s="74"/>
       <c r="B146" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="77" t="s">
+      <c r="C146" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D146" s="78" t="s">
+      <c r="D146" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E146" s="78"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78"/>
-      <c r="I146" s="79"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="36"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="47"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="41"/>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A147" s="65"/>
+      <c r="A147" s="74"/>
       <c r="B147" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C147" s="83"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
-      <c r="I147" s="84"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="38"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="42"/>
+      <c r="K147" s="43"/>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="65"/>
-      <c r="B148" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="57"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K148" s="34"/>
+      <c r="A148" s="74"/>
+      <c r="B148" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="64"/>
+      <c r="H148" s="64"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="K148" s="39"/>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="65"/>
+      <c r="A149" s="74"/>
       <c r="B149" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="36"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="41"/>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="65"/>
+      <c r="A150" s="74"/>
       <c r="B150" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="36"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="41"/>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="65"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="36"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="41"/>
     </row>
     <row r="152" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="65"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="36"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="41"/>
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="65"/>
+      <c r="A153" s="74"/>
       <c r="B153" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="36"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="41"/>
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="65"/>
-      <c r="B154" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="36"/>
+      <c r="A154" s="74"/>
+      <c r="B154" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="41"/>
     </row>
     <row r="155" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="65"/>
+      <c r="A155" s="74"/>
       <c r="B155" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="36"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="65"/>
+      <c r="A156" s="74"/>
       <c r="B156" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="36"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="41"/>
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="65"/>
+      <c r="A157" s="74"/>
       <c r="B157" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="36"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="41"/>
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A158" s="65"/>
+      <c r="A158" s="74"/>
       <c r="B158" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C158" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="38"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="42"/>
+      <c r="K158" s="43"/>
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="65"/>
-      <c r="B159" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-      <c r="I159" s="55"/>
-      <c r="J159" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="K159" s="34"/>
+      <c r="A159" s="74"/>
+      <c r="B159" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="61"/>
+      <c r="G159" s="61"/>
+      <c r="H159" s="61"/>
+      <c r="I159" s="62"/>
+      <c r="J159" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K159" s="39"/>
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="65"/>
+      <c r="A160" s="74"/>
       <c r="B160" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D160" s="24" t="s">
+      <c r="D160" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="36"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="41"/>
     </row>
     <row r="161" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="65"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="36"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="41"/>
     </row>
     <row r="162" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="65"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="36"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="41"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="41"/>
     </row>
     <row r="163" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="65"/>
+      <c r="A163" s="74"/>
       <c r="B163" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="36"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="41"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="41"/>
     </row>
     <row r="164" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="65"/>
+      <c r="A164" s="74"/>
       <c r="B164" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="35"/>
-      <c r="K164" s="36"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="41"/>
     </row>
     <row r="165" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="65"/>
-      <c r="B165" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C165" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="36"/>
+      <c r="A165" s="74"/>
+      <c r="B165" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="41"/>
     </row>
     <row r="166" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="65"/>
+      <c r="A166" s="74"/>
       <c r="B166" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C166" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="36"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="41"/>
     </row>
     <row r="167" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="65"/>
+      <c r="A167" s="74"/>
       <c r="B167" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="36"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="41"/>
     </row>
     <row r="168" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="65"/>
+      <c r="A168" s="74"/>
       <c r="B168" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="77" t="s">
+      <c r="C168" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D168" s="78" t="s">
+      <c r="D168" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E168" s="78"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="78"/>
-      <c r="H168" s="78"/>
-      <c r="I168" s="79"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="36"/>
+      <c r="E168" s="46"/>
+      <c r="F168" s="46"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="46"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="41"/>
     </row>
     <row r="169" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A169" s="75"/>
+      <c r="A169" s="87"/>
       <c r="B169" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C169" s="86"/>
-      <c r="D169" s="87"/>
-      <c r="E169" s="87"/>
-      <c r="F169" s="87"/>
-      <c r="G169" s="87"/>
-      <c r="H169" s="87"/>
-      <c r="I169" s="88"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="38"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="88"/>
+      <c r="E169" s="88"/>
+      <c r="F169" s="88"/>
+      <c r="G169" s="88"/>
+      <c r="H169" s="88"/>
+      <c r="I169" s="89"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="43"/>
     </row>
     <row r="170" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="64" t="s">
+      <c r="A170" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="B170" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C170" s="85"/>
-      <c r="D170" s="85"/>
-      <c r="E170" s="85"/>
-      <c r="F170" s="85"/>
-      <c r="G170" s="85"/>
-      <c r="H170" s="85"/>
-      <c r="I170" s="85"/>
-      <c r="J170" s="29" t="s">
+      <c r="C170" s="79"/>
+      <c r="D170" s="79"/>
+      <c r="E170" s="79"/>
+      <c r="F170" s="79"/>
+      <c r="G170" s="79"/>
+      <c r="H170" s="79"/>
+      <c r="I170" s="79"/>
+      <c r="J170" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="K170" s="30"/>
+      <c r="K170" s="35"/>
     </row>
     <row r="171" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="65"/>
+      <c r="A171" s="74"/>
       <c r="B171" s="11" t="s">
         <v>224</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D171" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E171" s="24"/>
+      <c r="D171" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E171" s="29"/>
       <c r="F171" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G171" s="22" t="s">
+      <c r="G171" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H171" s="22"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="32"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="37"/>
     </row>
     <row r="172" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="65"/>
+      <c r="A172" s="74"/>
       <c r="B172" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D172" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E172" s="24"/>
+      <c r="D172" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172" s="29"/>
       <c r="F172" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G172" s="22" t="s">
+      <c r="G172" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H172" s="22"/>
-      <c r="I172" s="23"/>
-      <c r="J172" s="31"/>
-      <c r="K172" s="32"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="37"/>
     </row>
     <row r="173" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="65"/>
-      <c r="B173" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="22"/>
-      <c r="H173" s="22"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="32"/>
+      <c r="A173" s="74"/>
+      <c r="B173" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="37"/>
     </row>
     <row r="174" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="65"/>
+      <c r="A174" s="74"/>
       <c r="B174" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E174" s="24"/>
+      <c r="D174" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E174" s="29"/>
       <c r="F174" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G174" s="22" t="s">
+      <c r="G174" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H174" s="22"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="32"/>
-    </row>
-    <row r="175" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="65"/>
-      <c r="B175" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D175" s="24" t="s">
+      <c r="H174" s="27"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="37"/>
+    </row>
+    <row r="175" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A175" s="87"/>
+      <c r="B175" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="E175" s="24"/>
-      <c r="F175" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G175" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H175" s="22"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="32"/>
-    </row>
-    <row r="176" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A176" s="75"/>
-      <c r="B176" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="70" t="s">
+      <c r="C175" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="H176" s="70"/>
-      <c r="I176" s="71"/>
-      <c r="J176" s="66"/>
-      <c r="K176" s="67"/>
-    </row>
+      <c r="H175" s="82"/>
+      <c r="I175" s="83"/>
+      <c r="J175" s="77"/>
+      <c r="K175" s="78"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.75" customHeight="1"/>
     <row r="177" ht="18.75" customHeight="1"/>
     <row r="178" ht="18.75" customHeight="1"/>
     <row r="179" ht="18.75" customHeight="1"/>
     <row r="180" ht="18.75" customHeight="1"/>
     <row r="181" ht="18.75" customHeight="1"/>
     <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="198">
     <mergeCell ref="D51:I51"/>
     <mergeCell ref="D52:I52"/>
     <mergeCell ref="D39:I39"/>
@@ -5296,7 +5279,7 @@
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="D21:I21"/>
-    <mergeCell ref="A170:A176"/>
+    <mergeCell ref="A170:A175"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D38:I38"/>
@@ -5323,15 +5306,12 @@
     <mergeCell ref="J53:K63"/>
     <mergeCell ref="J115:K125"/>
     <mergeCell ref="J126:K136"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="G175:I175"/>
     <mergeCell ref="D172:E172"/>
     <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D174:E174"/>
     <mergeCell ref="C173:I173"/>
     <mergeCell ref="G174:I174"/>
-    <mergeCell ref="G175:I175"/>
     <mergeCell ref="D145:I145"/>
     <mergeCell ref="D146:I146"/>
     <mergeCell ref="D142:I142"/>
@@ -5344,7 +5324,7 @@
     <mergeCell ref="D168:I168"/>
     <mergeCell ref="D105:I105"/>
     <mergeCell ref="D106:I106"/>
-    <mergeCell ref="J170:K176"/>
+    <mergeCell ref="J170:K175"/>
     <mergeCell ref="J137:K147"/>
     <mergeCell ref="J148:K158"/>
     <mergeCell ref="D158:I158"/>
@@ -5478,8 +5458,8 @@
     <mergeCell ref="D50:I50"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:I2"/>
